--- a/JupyterNotebooks/AvgHW/O554F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.112753773557184</v>
+        <v>1.029429725762656</v>
       </c>
       <c r="D3">
-        <v>0.9607936322357002</v>
+        <v>0.9729280451566664</v>
       </c>
       <c r="E3">
-        <v>1.039611688323167</v>
+        <v>0.9530845972601345</v>
       </c>
       <c r="F3">
         <v>1.112753773557184</v>
       </c>
       <c r="G3">
-        <v>0.9729280451566664</v>
+        <v>1.112753773557184</v>
       </c>
       <c r="H3">
-        <v>0.9530845972601344</v>
+        <v>0.9607936322357002</v>
       </c>
       <c r="I3">
-        <v>1.029429725762656</v>
+        <v>0.9607936322357002</v>
       </c>
       <c r="J3">
-        <v>0.9607936322357002</v>
+        <v>1.039611688323167</v>
       </c>
       <c r="K3">
         <v>1.112753773557184</v>
@@ -650,7 +662,7 @@
         <v>1.000202660279433</v>
       </c>
       <c r="O3">
-        <v>0.9844966392730004</v>
+        <v>0.9844966392730005</v>
       </c>
       <c r="P3">
         <v>1.037719698038684</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.211053358491132</v>
+        <v>1.059637210383201</v>
       </c>
       <c r="D4">
-        <v>0.9620574960323734</v>
+        <v>0.9793850607206441</v>
       </c>
       <c r="E4">
-        <v>1.084414578760547</v>
+        <v>0.9125013052238139</v>
       </c>
       <c r="F4">
         <v>1.211053358491132</v>
       </c>
       <c r="G4">
-        <v>0.9793850607206441</v>
+        <v>1.211053358491132</v>
       </c>
       <c r="H4">
-        <v>0.9125013052238139</v>
+        <v>0.9620574960323734</v>
       </c>
       <c r="I4">
-        <v>1.059637210383201</v>
+        <v>0.9620574960323734</v>
       </c>
       <c r="J4">
-        <v>0.9620574960323734</v>
+        <v>1.084414578760547</v>
       </c>
       <c r="K4">
         <v>1.211053358491132</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.580613731800601</v>
+        <v>1.205743805173127</v>
       </c>
       <c r="D5">
-        <v>0.9011132315998287</v>
+        <v>1.067649312866568</v>
       </c>
       <c r="E5">
-        <v>1.152503702487551</v>
+        <v>0.8457166824307703</v>
       </c>
       <c r="F5">
         <v>1.580613731800601</v>
       </c>
       <c r="G5">
-        <v>1.067649312866568</v>
+        <v>1.580613731800601</v>
       </c>
       <c r="H5">
-        <v>0.8457166824307703</v>
+        <v>0.9011132315998287</v>
       </c>
       <c r="I5">
-        <v>1.205743805173127</v>
+        <v>0.9011132315998287</v>
       </c>
       <c r="J5">
-        <v>0.9011132315998287</v>
+        <v>1.152503702487551</v>
       </c>
       <c r="K5">
         <v>1.580613731800601</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.554134155631811</v>
+        <v>1.03632892576431</v>
       </c>
       <c r="D6">
-        <v>0.8467560352298451</v>
+        <v>1.137992544694034</v>
       </c>
       <c r="E6">
-        <v>2.154481520590731</v>
+        <v>0.8201773597087939</v>
       </c>
       <c r="F6">
         <v>2.554134155631811</v>
       </c>
       <c r="G6">
-        <v>1.137992544694034</v>
+        <v>2.554134155631811</v>
       </c>
       <c r="H6">
-        <v>0.8201773597087939</v>
+        <v>0.8467560352298451</v>
       </c>
       <c r="I6">
-        <v>1.03632892576431</v>
+        <v>0.8467560352298451</v>
       </c>
       <c r="J6">
-        <v>0.8467560352298451</v>
+        <v>2.154481520590731</v>
       </c>
       <c r="K6">
         <v>2.554134155631811</v>
@@ -862,58 +874,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9983098173685259</v>
+        <v>0.999166917614535</v>
       </c>
       <c r="D7">
-        <v>0.9987154711486396</v>
+        <v>1.017070395296713</v>
       </c>
       <c r="E7">
-        <v>0.9995878004959707</v>
+        <v>0.9982218593163976</v>
       </c>
       <c r="F7">
-        <v>0.9983098173685259</v>
+        <v>0.9983098173685256</v>
       </c>
       <c r="G7">
-        <v>1.017070395296712</v>
+        <v>0.9983098173685256</v>
       </c>
       <c r="H7">
-        <v>0.9982218593163973</v>
+        <v>0.9987154711486411</v>
       </c>
       <c r="I7">
-        <v>0.9991669176145348</v>
+        <v>0.9987154711486411</v>
       </c>
       <c r="J7">
-        <v>0.9987154711486396</v>
+        <v>0.9995878004959705</v>
       </c>
       <c r="K7">
-        <v>0.9983098173685259</v>
+        <v>0.9983098173685256</v>
       </c>
       <c r="L7">
-        <v>0.9995878004959707</v>
+        <v>0.9995878004959705</v>
       </c>
       <c r="M7">
-        <v>0.9991516358223052</v>
+        <v>0.9991516358223058</v>
       </c>
       <c r="N7">
-        <v>0.9991516358223052</v>
+        <v>0.9991516358223058</v>
       </c>
       <c r="O7">
-        <v>0.9988417103203359</v>
+        <v>0.9988417103203364</v>
       </c>
       <c r="P7">
-        <v>0.9988710296710455</v>
+        <v>0.9988710296710458</v>
       </c>
       <c r="Q7">
-        <v>0.9988710296710455</v>
+        <v>0.9988710296710458</v>
       </c>
       <c r="R7">
-        <v>0.9987307265954155</v>
+        <v>0.9987307265954157</v>
       </c>
       <c r="S7">
-        <v>0.9987307265954155</v>
+        <v>0.9987307265954157</v>
       </c>
       <c r="T7">
-        <v>1.001845376873463</v>
+        <v>1.001845376873464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,55 +936,55 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9961438103362547</v>
+        <v>0.9971208447576549</v>
       </c>
       <c r="D8">
-        <v>0.9915835768305434</v>
+        <v>1.038750560666906</v>
       </c>
       <c r="E8">
-        <v>1.000238640747853</v>
+        <v>0.9958634256586336</v>
       </c>
       <c r="F8">
-        <v>0.9961438103362547</v>
+        <v>0.9961438103362551</v>
       </c>
       <c r="G8">
-        <v>1.038750560666903</v>
+        <v>0.9961438103362551</v>
       </c>
       <c r="H8">
-        <v>0.9958634256586339</v>
+        <v>0.9915835768305432</v>
       </c>
       <c r="I8">
-        <v>0.9971208447576544</v>
+        <v>0.9915835768305432</v>
       </c>
       <c r="J8">
-        <v>0.9915835768305434</v>
+        <v>1.000238640747852</v>
       </c>
       <c r="K8">
-        <v>0.9961438103362547</v>
+        <v>0.9961438103362551</v>
       </c>
       <c r="L8">
-        <v>1.000238640747853</v>
+        <v>1.000238640747852</v>
       </c>
       <c r="M8">
-        <v>0.9959111087891981</v>
+        <v>0.9959111087891978</v>
       </c>
       <c r="N8">
-        <v>0.9959111087891981</v>
+        <v>0.9959111087891978</v>
       </c>
       <c r="O8">
-        <v>0.9958952144123434</v>
+        <v>0.995895214412343</v>
       </c>
       <c r="P8">
         <v>0.9959886759715503</v>
       </c>
       <c r="Q8">
-        <v>0.9959886759715504</v>
+        <v>0.9959886759715501</v>
       </c>
       <c r="R8">
-        <v>0.9960274595627264</v>
+        <v>0.9960274595627263</v>
       </c>
       <c r="S8">
-        <v>0.9960274595627264</v>
+        <v>0.9960274595627263</v>
       </c>
       <c r="T8">
         <v>1.003283476499641</v>
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.032745654985226</v>
+        <v>0.9947769610572894</v>
       </c>
       <c r="D9">
-        <v>1.008002141846729</v>
+        <v>1.03223967381381</v>
       </c>
       <c r="E9">
-        <v>1.020075329623922</v>
+        <v>0.9965115907343304</v>
       </c>
       <c r="F9">
         <v>1.032745654985226</v>
       </c>
       <c r="G9">
-        <v>1.03223967381381</v>
+        <v>1.032745654985226</v>
       </c>
       <c r="H9">
-        <v>0.9965115907343304</v>
+        <v>1.008002141846728</v>
       </c>
       <c r="I9">
-        <v>0.9947769610572894</v>
+        <v>1.008002141846728</v>
       </c>
       <c r="J9">
-        <v>1.008002141846729</v>
+        <v>1.020075329623922</v>
       </c>
       <c r="K9">
         <v>1.032745654985226</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.017402232838984</v>
+        <v>1.007664326830499</v>
       </c>
       <c r="D10">
-        <v>0.9760269532198242</v>
+        <v>1.107364104626155</v>
       </c>
       <c r="E10">
-        <v>1.015691554013675</v>
+        <v>0.9884015927108242</v>
       </c>
       <c r="F10">
         <v>1.017402232838984</v>
       </c>
       <c r="G10">
-        <v>1.107364104626155</v>
+        <v>1.017402232838984</v>
       </c>
       <c r="H10">
-        <v>0.9884015927108242</v>
+        <v>0.9760269532198242</v>
       </c>
       <c r="I10">
-        <v>1.007664326830499</v>
+        <v>0.9760269532198242</v>
       </c>
       <c r="J10">
-        <v>0.9760269532198242</v>
+        <v>1.015691554013675</v>
       </c>
       <c r="K10">
         <v>1.017402232838984</v>
@@ -1078,10 +1090,10 @@
         <v>1.015691554013675</v>
       </c>
       <c r="M10">
-        <v>0.9958592536167497</v>
+        <v>0.9958592536167495</v>
       </c>
       <c r="N10">
-        <v>0.9958592536167497</v>
+        <v>0.9958592536167495</v>
       </c>
       <c r="O10">
         <v>0.9933733666481078</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.177543563225089</v>
+        <v>0.9512981726816829</v>
       </c>
       <c r="D11">
-        <v>1.101169656870749</v>
+        <v>1.144871781005563</v>
       </c>
       <c r="E11">
-        <v>1.093623645126621</v>
+        <v>1.078232386087562</v>
       </c>
       <c r="F11">
         <v>1.177543563225089</v>
       </c>
       <c r="G11">
-        <v>1.144871781005563</v>
+        <v>1.177543563225089</v>
       </c>
       <c r="H11">
-        <v>1.078232386087562</v>
+        <v>1.101169656870749</v>
       </c>
       <c r="I11">
-        <v>0.9512981726816829</v>
+        <v>1.101169656870749</v>
       </c>
       <c r="J11">
-        <v>1.101169656870749</v>
+        <v>1.093623645126621</v>
       </c>
       <c r="K11">
         <v>1.177543563225089</v>
@@ -1149,10 +1161,10 @@
         <v>1.091008562694977</v>
       </c>
       <c r="P11">
-        <v>1.124112288407486</v>
+        <v>1.124112288407487</v>
       </c>
       <c r="Q11">
-        <v>1.124112288407486</v>
+        <v>1.124112288407487</v>
       </c>
       <c r="R11">
         <v>1.137470107111887</v>
@@ -1172,55 +1184,55 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.241685068854794</v>
+        <v>0.9381371703097399</v>
       </c>
       <c r="D12">
-        <v>0.449016127050007</v>
+        <v>-0.0002100385357524366</v>
       </c>
       <c r="E12">
-        <v>0.1070690239220183</v>
+        <v>0.4354435678309616</v>
       </c>
       <c r="F12">
         <v>1.241685068854794</v>
       </c>
       <c r="G12">
-        <v>-0.0002100385357524321</v>
+        <v>1.241685068854794</v>
       </c>
       <c r="H12">
-        <v>0.4354435678309614</v>
+        <v>0.449016127050007</v>
       </c>
       <c r="I12">
-        <v>0.9381371703097404</v>
+        <v>0.449016127050007</v>
       </c>
       <c r="J12">
-        <v>0.449016127050007</v>
+        <v>0.1070690239220181</v>
       </c>
       <c r="K12">
         <v>1.241685068854794</v>
       </c>
       <c r="L12">
-        <v>0.1070690239220183</v>
+        <v>0.1070690239220181</v>
       </c>
       <c r="M12">
-        <v>0.2780425754860127</v>
+        <v>0.2780425754860125</v>
       </c>
       <c r="N12">
-        <v>0.2780425754860127</v>
+        <v>0.2780425754860125</v>
       </c>
       <c r="O12">
         <v>0.3305095729343289</v>
       </c>
       <c r="P12">
-        <v>0.5992567399422729</v>
+        <v>0.5992567399422731</v>
       </c>
       <c r="Q12">
-        <v>0.5992567399422729</v>
+        <v>0.5992567399422731</v>
       </c>
       <c r="R12">
-        <v>0.759863822170403</v>
+        <v>0.7598638221704035</v>
       </c>
       <c r="S12">
-        <v>0.759863822170403</v>
+        <v>0.7598638221704035</v>
       </c>
       <c r="T12">
         <v>0.5285234865719614</v>
@@ -1234,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9651220927888982</v>
+        <v>0.9547815606178326</v>
       </c>
       <c r="D13">
-        <v>1.297638248826565</v>
+        <v>0.7306637664362051</v>
       </c>
       <c r="E13">
-        <v>1.815688649196343</v>
+        <v>1.407610290818055</v>
       </c>
       <c r="F13">
         <v>0.9651220927888982</v>
       </c>
       <c r="G13">
-        <v>0.7306637664362055</v>
+        <v>0.9651220927888982</v>
       </c>
       <c r="H13">
-        <v>1.407610290818055</v>
+        <v>1.297638248826563</v>
       </c>
       <c r="I13">
-        <v>0.9547815606178331</v>
+        <v>1.297638248826563</v>
       </c>
       <c r="J13">
-        <v>1.297638248826565</v>
+        <v>1.815688649196343</v>
       </c>
       <c r="K13">
         <v>0.9651220927888982</v>
@@ -1264,19 +1276,19 @@
         <v>1.815688649196343</v>
       </c>
       <c r="M13">
-        <v>1.556663449011454</v>
+        <v>1.556663449011453</v>
       </c>
       <c r="N13">
-        <v>1.556663449011454</v>
+        <v>1.556663449011453</v>
       </c>
       <c r="O13">
-        <v>1.506979062946988</v>
+        <v>1.506979062946987</v>
       </c>
       <c r="P13">
-        <v>1.359482996937269</v>
+        <v>1.359482996937268</v>
       </c>
       <c r="Q13">
-        <v>1.359482996937269</v>
+        <v>1.359482996937268</v>
       </c>
       <c r="R13">
         <v>1.260892770900176</v>
@@ -1296,55 +1308,55 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.2863274522064889</v>
+        <v>0.9363853553797205</v>
       </c>
       <c r="D14">
-        <v>0.1533630248853515</v>
+        <v>-2.52333402309061E-05</v>
       </c>
       <c r="E14">
-        <v>0.6527204753933015</v>
+        <v>1.639652865097361</v>
       </c>
       <c r="F14">
-        <v>0.2863274522064889</v>
+        <v>0.2863274522064885</v>
       </c>
       <c r="G14">
-        <v>-2.523334023090703E-05</v>
+        <v>0.2863274522064885</v>
       </c>
       <c r="H14">
-        <v>1.639652865097361</v>
+        <v>0.1533630248853514</v>
       </c>
       <c r="I14">
-        <v>0.9363853553797205</v>
+        <v>0.1533630248853514</v>
       </c>
       <c r="J14">
-        <v>0.1533630248853515</v>
+        <v>0.6527204753933006</v>
       </c>
       <c r="K14">
-        <v>0.2863274522064889</v>
+        <v>0.2863274522064885</v>
       </c>
       <c r="L14">
-        <v>0.6527204753933015</v>
+        <v>0.6527204753933006</v>
       </c>
       <c r="M14">
-        <v>0.4030417501393265</v>
+        <v>0.403041750139326</v>
       </c>
       <c r="N14">
-        <v>0.4030417501393265</v>
+        <v>0.403041750139326</v>
       </c>
       <c r="O14">
-        <v>0.8152454551253379</v>
+        <v>0.8152454551253377</v>
       </c>
       <c r="P14">
-        <v>0.3641369841617139</v>
+        <v>0.3641369841617135</v>
       </c>
       <c r="Q14">
-        <v>0.364136984161714</v>
+        <v>0.3641369841617135</v>
       </c>
       <c r="R14">
-        <v>0.3446846011729077</v>
+        <v>0.3446846011729073</v>
       </c>
       <c r="S14">
-        <v>0.3446846011729077</v>
+        <v>0.3446846011729073</v>
       </c>
       <c r="T14">
         <v>0.6114039899369986</v>
@@ -1358,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.43150021494506</v>
+        <v>1.026606045801828</v>
       </c>
       <c r="D15">
+        <v>0.281633614831417</v>
+      </c>
+      <c r="E15">
+        <v>1.149097879653314</v>
+      </c>
+      <c r="F15">
+        <v>1.431500214945061</v>
+      </c>
+      <c r="G15">
+        <v>1.431500214945061</v>
+      </c>
+      <c r="H15">
         <v>3.714159919474402</v>
       </c>
-      <c r="E15">
+      <c r="I15">
+        <v>3.714159919474402</v>
+      </c>
+      <c r="J15">
         <v>0.9205660056265996</v>
       </c>
-      <c r="F15">
-        <v>1.43150021494506</v>
-      </c>
-      <c r="G15">
-        <v>0.281633614831417</v>
-      </c>
-      <c r="H15">
-        <v>1.149097879653313</v>
-      </c>
-      <c r="I15">
-        <v>1.026606045801828</v>
-      </c>
-      <c r="J15">
-        <v>3.714159919474402</v>
-      </c>
       <c r="K15">
-        <v>1.43150021494506</v>
+        <v>1.431500214945061</v>
       </c>
       <c r="L15">
         <v>0.9205660056265996</v>
@@ -1409,7 +1421,7 @@
         <v>1.874431588747781</v>
       </c>
       <c r="T15">
-        <v>1.420593946722103</v>
+        <v>1.420593946722104</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.027906712962076</v>
+        <v>1.591949119105427</v>
       </c>
       <c r="D16">
-        <v>1.004458331312996</v>
+        <v>0.5804994832185575</v>
       </c>
       <c r="E16">
-        <v>0.9909719345330805</v>
+        <v>0.204031787295144</v>
       </c>
       <c r="F16">
-        <v>1.027906712962076</v>
+        <v>2.924102868913081</v>
       </c>
       <c r="G16">
-        <v>1.015454001249245</v>
+        <v>2.924102868913081</v>
       </c>
       <c r="H16">
-        <v>1.001014991708771</v>
+        <v>0.1958062909882113</v>
       </c>
       <c r="I16">
-        <v>0.9886368129720182</v>
+        <v>0.1958062909882113</v>
       </c>
       <c r="J16">
-        <v>1.004458331312996</v>
+        <v>1.596393651300418</v>
       </c>
       <c r="K16">
-        <v>1.027906712962076</v>
+        <v>2.924102868913081</v>
       </c>
       <c r="L16">
-        <v>0.9909719345330805</v>
+        <v>1.596393651300418</v>
       </c>
       <c r="M16">
-        <v>0.9977151329230384</v>
+        <v>0.8960999711443145</v>
       </c>
       <c r="N16">
-        <v>0.9977151329230384</v>
+        <v>0.8960999711443145</v>
       </c>
       <c r="O16">
-        <v>0.998815085851616</v>
+        <v>0.6654105765279243</v>
       </c>
       <c r="P16">
-        <v>1.007778992936051</v>
+        <v>1.572100937067236</v>
       </c>
       <c r="Q16">
-        <v>1.007778992936051</v>
+        <v>1.572100937067237</v>
       </c>
       <c r="R16">
-        <v>1.012810922942557</v>
+        <v>1.910101420028698</v>
       </c>
       <c r="S16">
-        <v>1.012810922942557</v>
+        <v>1.910101420028698</v>
       </c>
       <c r="T16">
-        <v>1.004740464123031</v>
+        <v>1.18213053347014</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9336314740532841</v>
+        <v>1.385074444739075</v>
       </c>
       <c r="D17">
-        <v>1.015151243439434</v>
+        <v>1.166618380541279</v>
       </c>
       <c r="E17">
-        <v>1.019046313998567</v>
+        <v>0.4057108758110561</v>
       </c>
       <c r="F17">
-        <v>0.9336314740532841</v>
+        <v>2.245511980502009</v>
       </c>
       <c r="G17">
-        <v>1.026983217820354</v>
+        <v>2.245511980502009</v>
       </c>
       <c r="H17">
-        <v>0.9946282149027499</v>
+        <v>0.3904683592834121</v>
       </c>
       <c r="I17">
-        <v>1.004656710321107</v>
+        <v>0.3904683592834121</v>
       </c>
       <c r="J17">
-        <v>1.015151243439434</v>
+        <v>1.405818298888763</v>
       </c>
       <c r="K17">
-        <v>0.9336314740532841</v>
+        <v>2.245511980502009</v>
       </c>
       <c r="L17">
-        <v>1.019046313998567</v>
+        <v>1.405818298888763</v>
       </c>
       <c r="M17">
-        <v>1.017098778719</v>
+        <v>0.8981433290860874</v>
       </c>
       <c r="N17">
-        <v>1.017098778719</v>
+        <v>0.8981433290860874</v>
       </c>
       <c r="O17">
-        <v>1.00960859078025</v>
+        <v>0.7339991779944103</v>
       </c>
       <c r="P17">
-        <v>0.9892763438304281</v>
+        <v>1.347266212891395</v>
       </c>
       <c r="Q17">
-        <v>0.9892763438304281</v>
+        <v>1.347266212891395</v>
       </c>
       <c r="R17">
-        <v>0.975365126386142</v>
+        <v>1.571827654794048</v>
       </c>
       <c r="S17">
-        <v>0.975365126386142</v>
+        <v>1.571827654794048</v>
       </c>
       <c r="T17">
-        <v>0.9990161957559157</v>
+        <v>1.166533723294266</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.100901595565337</v>
+        <v>0.9789972430525405</v>
       </c>
       <c r="D18">
-        <v>1.006847522593038</v>
+        <v>2.323891621229206</v>
       </c>
       <c r="E18">
-        <v>1.079420336489671</v>
+        <v>0.8038333241086087</v>
       </c>
       <c r="F18">
-        <v>1.100901595565337</v>
+        <v>0.91223253929027</v>
       </c>
       <c r="G18">
-        <v>1.091274595236277</v>
+        <v>0.91223253929027</v>
       </c>
       <c r="H18">
-        <v>0.9773298617719509</v>
+        <v>0.7808768236076057</v>
       </c>
       <c r="I18">
-        <v>0.8993944615856081</v>
+        <v>0.7808768236076057</v>
       </c>
       <c r="J18">
-        <v>1.006847522593038</v>
+        <v>1.041877742004123</v>
       </c>
       <c r="K18">
-        <v>1.100901595565337</v>
+        <v>0.91223253929027</v>
       </c>
       <c r="L18">
-        <v>1.079420336489671</v>
+        <v>1.041877742004123</v>
       </c>
       <c r="M18">
-        <v>1.043133929541355</v>
+        <v>0.9113772828058644</v>
       </c>
       <c r="N18">
-        <v>1.043133929541355</v>
+        <v>0.9113772828058644</v>
       </c>
       <c r="O18">
-        <v>1.021199240284887</v>
+        <v>0.8755292965734459</v>
       </c>
       <c r="P18">
-        <v>1.062389818216015</v>
+        <v>0.9116623683006663</v>
       </c>
       <c r="Q18">
-        <v>1.062389818216015</v>
+        <v>0.9116623683006662</v>
       </c>
       <c r="R18">
-        <v>1.072017762553346</v>
+        <v>0.9118049110480672</v>
       </c>
       <c r="S18">
-        <v>1.072017762553346</v>
+        <v>0.9118049110480672</v>
       </c>
       <c r="T18">
-        <v>1.025861395540314</v>
+        <v>1.140284882215392</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9473361481011239</v>
+      </c>
+      <c r="D19">
+        <v>2.828234699161055</v>
+      </c>
+      <c r="E19">
+        <v>0.7663770806279201</v>
+      </c>
+      <c r="F19">
+        <v>0.8177345138703306</v>
+      </c>
+      <c r="G19">
+        <v>0.8177345138703306</v>
+      </c>
+      <c r="H19">
+        <v>1.089010520270741</v>
+      </c>
+      <c r="I19">
+        <v>1.089010520270741</v>
+      </c>
+      <c r="J19">
+        <v>0.9456433278783325</v>
+      </c>
+      <c r="K19">
+        <v>0.8177345138703306</v>
+      </c>
+      <c r="L19">
+        <v>0.9456433278783325</v>
+      </c>
+      <c r="M19">
+        <v>1.017326924074537</v>
+      </c>
+      <c r="N19">
+        <v>1.017326924074537</v>
+      </c>
+      <c r="O19">
+        <v>0.9336769762589978</v>
+      </c>
+      <c r="P19">
+        <v>0.9507961206731346</v>
+      </c>
+      <c r="Q19">
+        <v>0.9507961206731346</v>
+      </c>
+      <c r="R19">
+        <v>0.9175307189724335</v>
+      </c>
+      <c r="S19">
+        <v>0.9175307189724335</v>
+      </c>
+      <c r="T19">
+        <v>1.232389381651584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.988636812972019</v>
+      </c>
+      <c r="D20">
+        <v>1.015454001249245</v>
+      </c>
+      <c r="E20">
+        <v>1.00101499170877</v>
+      </c>
+      <c r="F20">
+        <v>1.027906712962076</v>
+      </c>
+      <c r="G20">
+        <v>1.027906712962076</v>
+      </c>
+      <c r="H20">
+        <v>1.004458331312995</v>
+      </c>
+      <c r="I20">
+        <v>1.004458331312995</v>
+      </c>
+      <c r="J20">
+        <v>0.9909719345330799</v>
+      </c>
+      <c r="K20">
+        <v>1.027906712962076</v>
+      </c>
+      <c r="L20">
+        <v>0.9909719345330799</v>
+      </c>
+      <c r="M20">
+        <v>0.9977151329230376</v>
+      </c>
+      <c r="N20">
+        <v>0.9977151329230376</v>
+      </c>
+      <c r="O20">
+        <v>0.998815085851615</v>
+      </c>
+      <c r="P20">
+        <v>1.00777899293605</v>
+      </c>
+      <c r="Q20">
+        <v>1.00777899293605</v>
+      </c>
+      <c r="R20">
+        <v>1.012810922942557</v>
+      </c>
+      <c r="S20">
+        <v>1.012810922942557</v>
+      </c>
+      <c r="T20">
+        <v>1.004740464123031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.004656710321109</v>
+      </c>
+      <c r="D21">
+        <v>1.026983217820353</v>
+      </c>
+      <c r="E21">
+        <v>0.9946282149027493</v>
+      </c>
+      <c r="F21">
+        <v>0.9336314740532857</v>
+      </c>
+      <c r="G21">
+        <v>0.9336314740532857</v>
+      </c>
+      <c r="H21">
+        <v>1.015151243439434</v>
+      </c>
+      <c r="I21">
+        <v>1.015151243439434</v>
+      </c>
+      <c r="J21">
+        <v>1.019046313998567</v>
+      </c>
+      <c r="K21">
+        <v>0.9336314740532857</v>
+      </c>
+      <c r="L21">
+        <v>1.019046313998567</v>
+      </c>
+      <c r="M21">
+        <v>1.017098778719001</v>
+      </c>
+      <c r="N21">
+        <v>1.017098778719001</v>
+      </c>
+      <c r="O21">
+        <v>1.00960859078025</v>
+      </c>
+      <c r="P21">
+        <v>0.989276343830429</v>
+      </c>
+      <c r="Q21">
+        <v>0.989276343830429</v>
+      </c>
+      <c r="R21">
+        <v>0.9753651263861431</v>
+      </c>
+      <c r="S21">
+        <v>0.9753651263861431</v>
+      </c>
+      <c r="T21">
+        <v>0.9990161957559164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.8993944615856085</v>
+      </c>
+      <c r="D22">
+        <v>1.091274595236276</v>
+      </c>
+      <c r="E22">
+        <v>0.9773298617719505</v>
+      </c>
+      <c r="F22">
+        <v>1.100901595565339</v>
+      </c>
+      <c r="G22">
+        <v>1.100901595565339</v>
+      </c>
+      <c r="H22">
+        <v>1.006847522593037</v>
+      </c>
+      <c r="I22">
+        <v>1.006847522593037</v>
+      </c>
+      <c r="J22">
+        <v>1.079420336489672</v>
+      </c>
+      <c r="K22">
+        <v>1.100901595565339</v>
+      </c>
+      <c r="L22">
+        <v>1.079420336489672</v>
+      </c>
+      <c r="M22">
+        <v>1.043133929541355</v>
+      </c>
+      <c r="N22">
+        <v>1.043133929541355</v>
+      </c>
+      <c r="O22">
+        <v>1.021199240284887</v>
+      </c>
+      <c r="P22">
+        <v>1.062389818216016</v>
+      </c>
+      <c r="Q22">
+        <v>1.062389818216016</v>
+      </c>
+      <c r="R22">
+        <v>1.072017762553347</v>
+      </c>
+      <c r="S22">
+        <v>1.072017762553347</v>
+      </c>
+      <c r="T22">
+        <v>1.025861395540314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.8582937982685956</v>
+      </c>
+      <c r="D23">
+        <v>0.9271107926505566</v>
+      </c>
+      <c r="E23">
+        <v>0.9594978587760234</v>
+      </c>
+      <c r="F23">
         <v>1.520174519614363</v>
       </c>
-      <c r="D19">
+      <c r="G23">
+        <v>1.520174519614363</v>
+      </c>
+      <c r="H23">
         <v>1.005236776924058</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.005236776924058</v>
+      </c>
+      <c r="J23">
         <v>0.9612187849574469</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>1.520174519614363</v>
       </c>
-      <c r="G19">
-        <v>0.9271107926505566</v>
-      </c>
-      <c r="H19">
-        <v>0.9594978587760234</v>
-      </c>
-      <c r="I19">
-        <v>0.8582937982685956</v>
-      </c>
-      <c r="J19">
-        <v>1.005236776924058</v>
-      </c>
-      <c r="K19">
-        <v>1.520174519614363</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9612187849574469</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9832277809407527</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9832277809407527</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.975317806885843</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.162210027165289</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.16221002716529</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.251701150277558</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.251701150277558</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.038588755198507</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.029429725762656</v>
+        <v>0.9560813193559221</v>
       </c>
       <c r="D3">
-        <v>0.9729280451566664</v>
+        <v>2.710761512148929</v>
       </c>
       <c r="E3">
-        <v>0.9530845972601345</v>
+        <v>0.7615173651328766</v>
       </c>
       <c r="F3">
-        <v>1.112753773557184</v>
+        <v>0.9402418200737852</v>
       </c>
       <c r="G3">
-        <v>1.112753773557184</v>
+        <v>0.9402418200737852</v>
       </c>
       <c r="H3">
-        <v>0.9607936322357002</v>
+        <v>0.7802433337014134</v>
       </c>
       <c r="I3">
-        <v>0.9607936322357002</v>
+        <v>0.7802433337014134</v>
       </c>
       <c r="J3">
-        <v>1.039611688323167</v>
+        <v>1.024556814739</v>
       </c>
       <c r="K3">
-        <v>1.112753773557184</v>
+        <v>0.9402418200737852</v>
       </c>
       <c r="L3">
-        <v>1.039611688323167</v>
+        <v>1.024556814739</v>
       </c>
       <c r="M3">
-        <v>1.000202660279433</v>
+        <v>0.9024000742202067</v>
       </c>
       <c r="N3">
-        <v>1.000202660279433</v>
+        <v>0.9024000742202067</v>
       </c>
       <c r="O3">
-        <v>0.9844966392730005</v>
+        <v>0.8554391711910968</v>
       </c>
       <c r="P3">
-        <v>1.037719698038684</v>
+        <v>0.9150139895047329</v>
       </c>
       <c r="Q3">
-        <v>1.037719698038684</v>
+        <v>0.9150139895047329</v>
       </c>
       <c r="R3">
-        <v>1.056478216918309</v>
+        <v>0.921320947146996</v>
       </c>
       <c r="S3">
-        <v>1.056478216918309</v>
+        <v>0.921320947146996</v>
       </c>
       <c r="T3">
-        <v>1.011433577049251</v>
+        <v>1.195567027525321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.059637210383201</v>
+        <v>0.9640642831873729</v>
       </c>
       <c r="D4">
-        <v>0.9793850607206441</v>
+        <v>2.50996016766176</v>
       </c>
       <c r="E4">
-        <v>0.9125013052238139</v>
+        <v>0.7876633575741578</v>
       </c>
       <c r="F4">
-        <v>1.211053358491132</v>
+        <v>0.9124267531584884</v>
       </c>
       <c r="G4">
-        <v>1.211053358491132</v>
+        <v>0.9124267531584884</v>
       </c>
       <c r="H4">
-        <v>0.9620574960323734</v>
+        <v>0.783123295804701</v>
       </c>
       <c r="I4">
-        <v>0.9620574960323734</v>
+        <v>0.783123295804701</v>
       </c>
       <c r="J4">
-        <v>1.084414578760547</v>
+        <v>1.02216842775191</v>
       </c>
       <c r="K4">
-        <v>1.211053358491132</v>
+        <v>0.9124267531584884</v>
       </c>
       <c r="L4">
-        <v>1.084414578760547</v>
+        <v>1.02216842775191</v>
       </c>
       <c r="M4">
-        <v>1.02323603739646</v>
+        <v>0.9026458617783053</v>
       </c>
       <c r="N4">
-        <v>1.02323603739646</v>
+        <v>0.9026458617783053</v>
       </c>
       <c r="O4">
-        <v>0.9863244600055782</v>
+        <v>0.8643183603769229</v>
       </c>
       <c r="P4">
-        <v>1.085841811094684</v>
+        <v>0.905906158905033</v>
       </c>
       <c r="Q4">
-        <v>1.085841811094684</v>
+        <v>0.905906158905033</v>
       </c>
       <c r="R4">
-        <v>1.117144697943796</v>
+        <v>0.9075363074683969</v>
       </c>
       <c r="S4">
-        <v>1.117144697943796</v>
+        <v>0.9075363074683969</v>
       </c>
       <c r="T4">
-        <v>1.034841501601952</v>
+        <v>1.163234380856398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.205743805173127</v>
+        <v>0.9298243953246901</v>
       </c>
       <c r="D5">
-        <v>1.067649312866568</v>
+        <v>3.029873796925126</v>
       </c>
       <c r="E5">
-        <v>0.8457166824307703</v>
+        <v>0.7079694641511862</v>
       </c>
       <c r="F5">
-        <v>1.580613731800601</v>
+        <v>1.027657017911617</v>
       </c>
       <c r="G5">
-        <v>1.580613731800601</v>
+        <v>1.027657017911617</v>
       </c>
       <c r="H5">
-        <v>0.9011132315998287</v>
+        <v>0.8008991600757196</v>
       </c>
       <c r="I5">
-        <v>0.9011132315998287</v>
+        <v>0.8008991600757196</v>
       </c>
       <c r="J5">
-        <v>1.152503702487551</v>
+        <v>1.015840047099309</v>
       </c>
       <c r="K5">
-        <v>1.580613731800601</v>
+        <v>1.027657017911617</v>
       </c>
       <c r="L5">
-        <v>1.152503702487551</v>
+        <v>1.015840047099309</v>
       </c>
       <c r="M5">
-        <v>1.02680846704369</v>
+        <v>0.9083696035875141</v>
       </c>
       <c r="N5">
-        <v>1.02680846704369</v>
+        <v>0.9083696035875141</v>
       </c>
       <c r="O5">
-        <v>0.9664445388393833</v>
+        <v>0.8415695571087382</v>
       </c>
       <c r="P5">
-        <v>1.21141022196266</v>
+        <v>0.9481320750288819</v>
       </c>
       <c r="Q5">
-        <v>1.211410221962661</v>
+        <v>0.9481320750288819</v>
       </c>
       <c r="R5">
-        <v>1.303711099422146</v>
+        <v>0.9680133107495656</v>
       </c>
       <c r="S5">
-        <v>1.303711099422146</v>
+        <v>0.9680133107495656</v>
       </c>
       <c r="T5">
-        <v>1.125556744393075</v>
+        <v>1.252010646914608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.03632892576431</v>
+        <v>0.8906092243696592</v>
       </c>
       <c r="D6">
-        <v>1.137992544694034</v>
+        <v>3.496130476949352</v>
       </c>
       <c r="E6">
-        <v>0.8201773597087939</v>
+        <v>0.6935020782344995</v>
       </c>
       <c r="F6">
-        <v>2.554134155631811</v>
+        <v>1.216605984916363</v>
       </c>
       <c r="G6">
-        <v>2.554134155631811</v>
+        <v>1.216605984916363</v>
       </c>
       <c r="H6">
-        <v>0.8467560352298451</v>
+        <v>0.7909162145392039</v>
       </c>
       <c r="I6">
-        <v>0.8467560352298451</v>
+        <v>0.7909162145392039</v>
       </c>
       <c r="J6">
-        <v>2.154481520590731</v>
+        <v>1.164948388550682</v>
       </c>
       <c r="K6">
-        <v>2.554134155631811</v>
+        <v>1.216605984916363</v>
       </c>
       <c r="L6">
-        <v>2.154481520590731</v>
+        <v>1.164948388550682</v>
       </c>
       <c r="M6">
-        <v>1.500618777910288</v>
+        <v>0.977932301544943</v>
       </c>
       <c r="N6">
-        <v>1.500618777910288</v>
+        <v>0.977932301544943</v>
       </c>
       <c r="O6">
-        <v>1.273804971843123</v>
+        <v>0.8831222271081285</v>
       </c>
       <c r="P6">
-        <v>1.851790570484129</v>
+        <v>1.057490196002083</v>
       </c>
       <c r="Q6">
-        <v>1.851790570484129</v>
+        <v>1.057490196002083</v>
       </c>
       <c r="R6">
-        <v>2.02737646677105</v>
+        <v>1.097269143230653</v>
       </c>
       <c r="S6">
-        <v>2.02737646677105</v>
+        <v>1.097269143230653</v>
       </c>
       <c r="T6">
-        <v>1.424978423603254</v>
+        <v>1.37545206125996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999166917614535</v>
+        <v>0.1404678799942048</v>
       </c>
       <c r="D7">
-        <v>1.017070395296713</v>
+        <v>4.535144293393139</v>
       </c>
       <c r="E7">
-        <v>0.9982218593163976</v>
+        <v>0.03567824545158457</v>
       </c>
       <c r="F7">
-        <v>0.9983098173685256</v>
+        <v>1.892924720147697</v>
       </c>
       <c r="G7">
-        <v>0.9983098173685256</v>
+        <v>1.892924720147697</v>
       </c>
       <c r="H7">
-        <v>0.9987154711486411</v>
+        <v>3.788998248009452</v>
       </c>
       <c r="I7">
-        <v>0.9987154711486411</v>
+        <v>3.788998248009452</v>
       </c>
       <c r="J7">
-        <v>0.9995878004959705</v>
+        <v>1.909312077880692</v>
       </c>
       <c r="K7">
-        <v>0.9983098173685256</v>
+        <v>1.892924720147697</v>
       </c>
       <c r="L7">
-        <v>0.9995878004959705</v>
+        <v>1.909312077880692</v>
       </c>
       <c r="M7">
-        <v>0.9991516358223058</v>
+        <v>2.849155162945072</v>
       </c>
       <c r="N7">
-        <v>0.9991516358223058</v>
+        <v>2.849155162945072</v>
       </c>
       <c r="O7">
-        <v>0.9988417103203364</v>
+        <v>1.911329523780576</v>
       </c>
       <c r="P7">
-        <v>0.9988710296710458</v>
+        <v>2.530411682012614</v>
       </c>
       <c r="Q7">
-        <v>0.9988710296710458</v>
+        <v>2.530411682012614</v>
       </c>
       <c r="R7">
-        <v>0.9987307265954157</v>
+        <v>2.371039941546385</v>
       </c>
       <c r="S7">
-        <v>0.9987307265954157</v>
+        <v>2.371039941546385</v>
       </c>
       <c r="T7">
-        <v>1.001845376873464</v>
+        <v>2.050420910812795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9971208447576549</v>
+        <v>0.1400439674751711</v>
       </c>
       <c r="D8">
-        <v>1.038750560666906</v>
+        <v>4.594734806660918</v>
       </c>
       <c r="E8">
-        <v>0.9958634256586336</v>
+        <v>0.0354867531263421</v>
       </c>
       <c r="F8">
-        <v>0.9961438103362551</v>
+        <v>1.880932696052732</v>
       </c>
       <c r="G8">
-        <v>0.9961438103362551</v>
+        <v>1.880932696052732</v>
       </c>
       <c r="H8">
-        <v>0.9915835768305432</v>
+        <v>3.770219205583233</v>
       </c>
       <c r="I8">
-        <v>0.9915835768305432</v>
+        <v>3.770219205583233</v>
       </c>
       <c r="J8">
-        <v>1.000238640747852</v>
+        <v>1.909539214169965</v>
       </c>
       <c r="K8">
-        <v>0.9961438103362551</v>
+        <v>1.880932696052732</v>
       </c>
       <c r="L8">
-        <v>1.000238640747852</v>
+        <v>1.909539214169965</v>
       </c>
       <c r="M8">
-        <v>0.9959111087891978</v>
+        <v>2.839879209876599</v>
       </c>
       <c r="N8">
-        <v>0.9959111087891978</v>
+        <v>2.839879209876599</v>
       </c>
       <c r="O8">
-        <v>0.995895214412343</v>
+        <v>1.90508172429318</v>
       </c>
       <c r="P8">
-        <v>0.9959886759715503</v>
+        <v>2.52023037193531</v>
       </c>
       <c r="Q8">
-        <v>0.9959886759715501</v>
+        <v>2.52023037193531</v>
       </c>
       <c r="R8">
-        <v>0.9960274595627263</v>
+        <v>2.360405952964665</v>
       </c>
       <c r="S8">
-        <v>0.9960274595627263</v>
+        <v>2.360405952964665</v>
       </c>
       <c r="T8">
-        <v>1.003283476499641</v>
+        <v>2.055159440511393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9947769610572894</v>
+        <v>0.1393086895519019</v>
       </c>
       <c r="D9">
-        <v>1.03223967381381</v>
+        <v>4.657473243888413</v>
       </c>
       <c r="E9">
-        <v>0.9965115907343304</v>
+        <v>0.03539152316751482</v>
       </c>
       <c r="F9">
-        <v>1.032745654985226</v>
+        <v>1.870231723381452</v>
       </c>
       <c r="G9">
-        <v>1.032745654985226</v>
+        <v>1.870231723381452</v>
       </c>
       <c r="H9">
-        <v>1.008002141846728</v>
+        <v>3.760410325047903</v>
       </c>
       <c r="I9">
-        <v>1.008002141846728</v>
+        <v>3.760410325047903</v>
       </c>
       <c r="J9">
-        <v>1.020075329623922</v>
+        <v>1.902520263045878</v>
       </c>
       <c r="K9">
-        <v>1.032745654985226</v>
+        <v>1.870231723381452</v>
       </c>
       <c r="L9">
-        <v>1.020075329623922</v>
+        <v>1.902520263045878</v>
       </c>
       <c r="M9">
-        <v>1.014038735735325</v>
+        <v>2.831465294046891</v>
       </c>
       <c r="N9">
-        <v>1.014038735735325</v>
+        <v>2.831465294046891</v>
       </c>
       <c r="O9">
-        <v>1.008196354068327</v>
+        <v>1.899440703753766</v>
       </c>
       <c r="P9">
-        <v>1.020274375485292</v>
+        <v>2.511054103825078</v>
       </c>
       <c r="Q9">
-        <v>1.020274375485292</v>
+        <v>2.511054103825078</v>
       </c>
       <c r="R9">
-        <v>1.023392195360276</v>
+        <v>2.350848508714171</v>
       </c>
       <c r="S9">
-        <v>1.023392195360276</v>
+        <v>2.350848508714171</v>
       </c>
       <c r="T9">
-        <v>1.014058558676884</v>
+        <v>2.06088929468051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.007664326830499</v>
+        <v>0.1386302317362585</v>
       </c>
       <c r="D10">
-        <v>1.107364104626155</v>
+        <v>4.723360454227146</v>
       </c>
       <c r="E10">
-        <v>0.9884015927108242</v>
+        <v>0.03489717351789317</v>
       </c>
       <c r="F10">
-        <v>1.017402232838984</v>
+        <v>1.83624663398498</v>
       </c>
       <c r="G10">
-        <v>1.017402232838984</v>
+        <v>1.83624663398498</v>
       </c>
       <c r="H10">
-        <v>0.9760269532198242</v>
+        <v>3.712752249160128</v>
       </c>
       <c r="I10">
-        <v>0.9760269532198242</v>
+        <v>3.712752249160128</v>
       </c>
       <c r="J10">
-        <v>1.015691554013675</v>
+        <v>1.926822423669269</v>
       </c>
       <c r="K10">
-        <v>1.017402232838984</v>
+        <v>1.83624663398498</v>
       </c>
       <c r="L10">
-        <v>1.015691554013675</v>
+        <v>1.926822423669269</v>
       </c>
       <c r="M10">
-        <v>0.9958592536167495</v>
+        <v>2.819787336414699</v>
       </c>
       <c r="N10">
-        <v>0.9958592536167495</v>
+        <v>2.819787336414699</v>
       </c>
       <c r="O10">
-        <v>0.9933733666481078</v>
+        <v>1.891490615449097</v>
       </c>
       <c r="P10">
-        <v>1.003040246690828</v>
+        <v>2.491940435604792</v>
       </c>
       <c r="Q10">
-        <v>1.003040246690828</v>
+        <v>2.491940435604793</v>
       </c>
       <c r="R10">
-        <v>1.006630743227867</v>
+        <v>2.32801698519984</v>
       </c>
       <c r="S10">
-        <v>1.006630743227867</v>
+        <v>2.32801698519984</v>
       </c>
       <c r="T10">
-        <v>1.01875846070666</v>
+        <v>2.062118194382613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9512981726816829</v>
+        <v>1.030913943668713</v>
       </c>
       <c r="D11">
-        <v>1.144871781005563</v>
+        <v>0.9649990771338429</v>
       </c>
       <c r="E11">
-        <v>1.078232386087562</v>
+        <v>0.9524546815841383</v>
       </c>
       <c r="F11">
-        <v>1.177543563225089</v>
+        <v>1.112981457615426</v>
       </c>
       <c r="G11">
-        <v>1.177543563225089</v>
+        <v>1.112981457615426</v>
       </c>
       <c r="H11">
-        <v>1.101169656870749</v>
+        <v>0.9602896089421282</v>
       </c>
       <c r="I11">
-        <v>1.101169656870749</v>
+        <v>0.9602896089421282</v>
       </c>
       <c r="J11">
-        <v>1.093623645126621</v>
+        <v>1.040527621594435</v>
       </c>
       <c r="K11">
-        <v>1.177543563225089</v>
+        <v>1.112981457615426</v>
       </c>
       <c r="L11">
-        <v>1.093623645126621</v>
+        <v>1.040527621594435</v>
       </c>
       <c r="M11">
-        <v>1.097396650998685</v>
+        <v>1.000408615268282</v>
       </c>
       <c r="N11">
-        <v>1.097396650998685</v>
+        <v>1.000408615268282</v>
       </c>
       <c r="O11">
-        <v>1.091008562694977</v>
+        <v>0.9844239707069007</v>
       </c>
       <c r="P11">
-        <v>1.124112288407487</v>
+        <v>1.037932896050663</v>
       </c>
       <c r="Q11">
-        <v>1.124112288407487</v>
+        <v>1.037932896050663</v>
       </c>
       <c r="R11">
-        <v>1.137470107111887</v>
+        <v>1.056695036441854</v>
       </c>
       <c r="S11">
-        <v>1.137470107111887</v>
+        <v>1.056695036441854</v>
       </c>
       <c r="T11">
-        <v>1.091123200832878</v>
+        <v>1.010361065089781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9381371703097399</v>
+        <v>1.011757174819843</v>
       </c>
       <c r="D12">
-        <v>-0.0002100385357524366</v>
+        <v>1.006984493666746</v>
       </c>
       <c r="E12">
-        <v>0.4354435678309616</v>
+        <v>0.9746606388327319</v>
       </c>
       <c r="F12">
-        <v>1.241685068854794</v>
+        <v>1.054308561002889</v>
       </c>
       <c r="G12">
-        <v>1.241685068854794</v>
+        <v>1.054308561002889</v>
       </c>
       <c r="H12">
-        <v>0.449016127050007</v>
+        <v>0.9982100908297943</v>
       </c>
       <c r="I12">
-        <v>0.449016127050007</v>
+        <v>0.9982100908297943</v>
       </c>
       <c r="J12">
-        <v>0.1070690239220181</v>
+        <v>1.018204142758571</v>
       </c>
       <c r="K12">
-        <v>1.241685068854794</v>
+        <v>1.054308561002889</v>
       </c>
       <c r="L12">
-        <v>0.1070690239220181</v>
+        <v>1.018204142758571</v>
       </c>
       <c r="M12">
-        <v>0.2780425754860125</v>
+        <v>1.008207116794182</v>
       </c>
       <c r="N12">
-        <v>0.2780425754860125</v>
+        <v>1.008207116794182</v>
       </c>
       <c r="O12">
-        <v>0.3305095729343289</v>
+        <v>0.9970249574736988</v>
       </c>
       <c r="P12">
-        <v>0.5992567399422731</v>
+        <v>1.023574264863751</v>
       </c>
       <c r="Q12">
-        <v>0.5992567399422731</v>
+        <v>1.023574264863751</v>
       </c>
       <c r="R12">
-        <v>0.7598638221704035</v>
+        <v>1.031257838898536</v>
       </c>
       <c r="S12">
-        <v>0.7598638221704035</v>
+        <v>1.031257838898536</v>
       </c>
       <c r="T12">
-        <v>0.5285234865719614</v>
+        <v>1.010687516985096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9547815606178326</v>
+        <v>1.033510395859036</v>
       </c>
       <c r="D13">
-        <v>0.7306637664362051</v>
+        <v>0.9626038760319452</v>
       </c>
       <c r="E13">
-        <v>1.407610290818055</v>
+        <v>0.9001264111515748</v>
       </c>
       <c r="F13">
-        <v>0.9651220927888982</v>
+        <v>1.245050470226563</v>
       </c>
       <c r="G13">
-        <v>0.9651220927888982</v>
+        <v>1.245050470226563</v>
       </c>
       <c r="H13">
-        <v>1.297638248826563</v>
+        <v>1.004402572478512</v>
       </c>
       <c r="I13">
-        <v>1.297638248826563</v>
+        <v>1.004402572478512</v>
       </c>
       <c r="J13">
-        <v>1.815688649196343</v>
+        <v>1.058788960338943</v>
       </c>
       <c r="K13">
-        <v>0.9651220927888982</v>
+        <v>1.245050470226563</v>
       </c>
       <c r="L13">
-        <v>1.815688649196343</v>
+        <v>1.058788960338943</v>
       </c>
       <c r="M13">
-        <v>1.556663449011453</v>
+        <v>1.031595766408727</v>
       </c>
       <c r="N13">
-        <v>1.556663449011453</v>
+        <v>1.031595766408727</v>
       </c>
       <c r="O13">
-        <v>1.506979062946987</v>
+        <v>0.9877726479896766</v>
       </c>
       <c r="P13">
-        <v>1.359482996937268</v>
+        <v>1.102747334348006</v>
       </c>
       <c r="Q13">
-        <v>1.359482996937268</v>
+        <v>1.102747334348006</v>
       </c>
       <c r="R13">
-        <v>1.260892770900176</v>
+        <v>1.138323118317645</v>
       </c>
       <c r="S13">
-        <v>1.260892770900176</v>
+        <v>1.138323118317645</v>
       </c>
       <c r="T13">
-        <v>1.195250768113983</v>
+        <v>1.034080447681096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9363853553797205</v>
+        <v>1.038284753990927</v>
       </c>
       <c r="D14">
-        <v>-2.52333402309061E-05</v>
+        <v>1.013932879811492</v>
       </c>
       <c r="E14">
-        <v>1.639652865097361</v>
+        <v>0.8338492706756219</v>
       </c>
       <c r="F14">
-        <v>0.2863274522064885</v>
+        <v>1.68462042613969</v>
       </c>
       <c r="G14">
-        <v>0.2863274522064885</v>
+        <v>1.68462042613969</v>
       </c>
       <c r="H14">
-        <v>0.1533630248853514</v>
+        <v>0.797726845980726</v>
       </c>
       <c r="I14">
-        <v>0.1533630248853514</v>
+        <v>0.797726845980726</v>
       </c>
       <c r="J14">
-        <v>0.6527204753933006</v>
+        <v>1.242104700876666</v>
       </c>
       <c r="K14">
-        <v>0.2863274522064885</v>
+        <v>1.68462042613969</v>
       </c>
       <c r="L14">
-        <v>0.6527204753933006</v>
+        <v>1.242104700876666</v>
       </c>
       <c r="M14">
-        <v>0.403041750139326</v>
+        <v>1.019915773428696</v>
       </c>
       <c r="N14">
-        <v>0.403041750139326</v>
+        <v>1.019915773428696</v>
       </c>
       <c r="O14">
-        <v>0.8152454551253377</v>
+        <v>0.9578936058443378</v>
       </c>
       <c r="P14">
-        <v>0.3641369841617135</v>
+        <v>1.241483990999027</v>
       </c>
       <c r="Q14">
-        <v>0.3641369841617135</v>
+        <v>1.241483990999027</v>
       </c>
       <c r="R14">
-        <v>0.3446846011729073</v>
+        <v>1.352268099784193</v>
       </c>
       <c r="S14">
-        <v>0.3446846011729073</v>
+        <v>1.352268099784193</v>
       </c>
       <c r="T14">
-        <v>0.6114039899369986</v>
+        <v>1.101753146245854</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.026606045801828</v>
+        <v>1.029429725762656</v>
       </c>
       <c r="D15">
-        <v>0.281633614831417</v>
+        <v>0.9729280451566664</v>
       </c>
       <c r="E15">
-        <v>1.149097879653314</v>
+        <v>0.9530845972601345</v>
       </c>
       <c r="F15">
-        <v>1.431500214945061</v>
+        <v>1.112753773557184</v>
       </c>
       <c r="G15">
-        <v>1.431500214945061</v>
+        <v>1.112753773557184</v>
       </c>
       <c r="H15">
-        <v>3.714159919474402</v>
+        <v>0.9607936322357002</v>
       </c>
       <c r="I15">
-        <v>3.714159919474402</v>
+        <v>0.9607936322357002</v>
       </c>
       <c r="J15">
-        <v>0.9205660056265996</v>
+        <v>1.039611688323167</v>
       </c>
       <c r="K15">
-        <v>1.431500214945061</v>
+        <v>1.112753773557184</v>
       </c>
       <c r="L15">
-        <v>0.9205660056265996</v>
+        <v>1.039611688323167</v>
       </c>
       <c r="M15">
-        <v>2.317362962550501</v>
+        <v>1.000202660279433</v>
       </c>
       <c r="N15">
-        <v>2.317362962550501</v>
+        <v>1.000202660279433</v>
       </c>
       <c r="O15">
-        <v>1.927941268251438</v>
+        <v>0.9844966392730005</v>
       </c>
       <c r="P15">
-        <v>2.022075380015354</v>
+        <v>1.037719698038684</v>
       </c>
       <c r="Q15">
-        <v>2.022075380015354</v>
+        <v>1.037719698038684</v>
       </c>
       <c r="R15">
-        <v>1.874431588747781</v>
+        <v>1.056478216918309</v>
       </c>
       <c r="S15">
-        <v>1.874431588747781</v>
+        <v>1.056478216918309</v>
       </c>
       <c r="T15">
-        <v>1.420593946722104</v>
+        <v>1.011433577049251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.591949119105427</v>
+        <v>1.059637210383201</v>
       </c>
       <c r="D16">
-        <v>0.5804994832185575</v>
+        <v>0.9793850607206441</v>
       </c>
       <c r="E16">
-        <v>0.204031787295144</v>
+        <v>0.9125013052238139</v>
       </c>
       <c r="F16">
-        <v>2.924102868913081</v>
+        <v>1.211053358491132</v>
       </c>
       <c r="G16">
-        <v>2.924102868913081</v>
+        <v>1.211053358491132</v>
       </c>
       <c r="H16">
-        <v>0.1958062909882113</v>
+        <v>0.9620574960323734</v>
       </c>
       <c r="I16">
-        <v>0.1958062909882113</v>
+        <v>0.9620574960323734</v>
       </c>
       <c r="J16">
-        <v>1.596393651300418</v>
+        <v>1.084414578760547</v>
       </c>
       <c r="K16">
-        <v>2.924102868913081</v>
+        <v>1.211053358491132</v>
       </c>
       <c r="L16">
-        <v>1.596393651300418</v>
+        <v>1.084414578760547</v>
       </c>
       <c r="M16">
-        <v>0.8960999711443145</v>
+        <v>1.02323603739646</v>
       </c>
       <c r="N16">
-        <v>0.8960999711443145</v>
+        <v>1.02323603739646</v>
       </c>
       <c r="O16">
-        <v>0.6654105765279243</v>
+        <v>0.9863244600055782</v>
       </c>
       <c r="P16">
-        <v>1.572100937067236</v>
+        <v>1.085841811094684</v>
       </c>
       <c r="Q16">
-        <v>1.572100937067237</v>
+        <v>1.085841811094684</v>
       </c>
       <c r="R16">
-        <v>1.910101420028698</v>
+        <v>1.117144697943796</v>
       </c>
       <c r="S16">
-        <v>1.910101420028698</v>
+        <v>1.117144697943796</v>
       </c>
       <c r="T16">
-        <v>1.18213053347014</v>
+        <v>1.034841501601952</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.385074444739075</v>
+        <v>1.205743805173127</v>
       </c>
       <c r="D17">
-        <v>1.166618380541279</v>
+        <v>1.067649312866568</v>
       </c>
       <c r="E17">
-        <v>0.4057108758110561</v>
+        <v>0.8457166824307703</v>
       </c>
       <c r="F17">
-        <v>2.245511980502009</v>
+        <v>1.580613731800601</v>
       </c>
       <c r="G17">
-        <v>2.245511980502009</v>
+        <v>1.580613731800601</v>
       </c>
       <c r="H17">
-        <v>0.3904683592834121</v>
+        <v>0.9011132315998287</v>
       </c>
       <c r="I17">
-        <v>0.3904683592834121</v>
+        <v>0.9011132315998287</v>
       </c>
       <c r="J17">
-        <v>1.405818298888763</v>
+        <v>1.152503702487551</v>
       </c>
       <c r="K17">
-        <v>2.245511980502009</v>
+        <v>1.580613731800601</v>
       </c>
       <c r="L17">
-        <v>1.405818298888763</v>
+        <v>1.152503702487551</v>
       </c>
       <c r="M17">
-        <v>0.8981433290860874</v>
+        <v>1.02680846704369</v>
       </c>
       <c r="N17">
-        <v>0.8981433290860874</v>
+        <v>1.02680846704369</v>
       </c>
       <c r="O17">
-        <v>0.7339991779944103</v>
+        <v>0.9664445388393833</v>
       </c>
       <c r="P17">
-        <v>1.347266212891395</v>
+        <v>1.21141022196266</v>
       </c>
       <c r="Q17">
-        <v>1.347266212891395</v>
+        <v>1.211410221962661</v>
       </c>
       <c r="R17">
-        <v>1.571827654794048</v>
+        <v>1.303711099422146</v>
       </c>
       <c r="S17">
-        <v>1.571827654794048</v>
+        <v>1.303711099422146</v>
       </c>
       <c r="T17">
-        <v>1.166533723294266</v>
+        <v>1.125556744393075</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9789972430525405</v>
+        <v>1.03632892576431</v>
       </c>
       <c r="D18">
-        <v>2.323891621229206</v>
+        <v>1.137992544694034</v>
       </c>
       <c r="E18">
-        <v>0.8038333241086087</v>
+        <v>0.8201773597087939</v>
       </c>
       <c r="F18">
-        <v>0.91223253929027</v>
+        <v>2.554134155631811</v>
       </c>
       <c r="G18">
-        <v>0.91223253929027</v>
+        <v>2.554134155631811</v>
       </c>
       <c r="H18">
-        <v>0.7808768236076057</v>
+        <v>0.8467560352298451</v>
       </c>
       <c r="I18">
-        <v>0.7808768236076057</v>
+        <v>0.8467560352298451</v>
       </c>
       <c r="J18">
-        <v>1.041877742004123</v>
+        <v>2.154481520590731</v>
       </c>
       <c r="K18">
-        <v>0.91223253929027</v>
+        <v>2.554134155631811</v>
       </c>
       <c r="L18">
-        <v>1.041877742004123</v>
+        <v>2.154481520590731</v>
       </c>
       <c r="M18">
-        <v>0.9113772828058644</v>
+        <v>1.500618777910288</v>
       </c>
       <c r="N18">
-        <v>0.9113772828058644</v>
+        <v>1.500618777910288</v>
       </c>
       <c r="O18">
-        <v>0.8755292965734459</v>
+        <v>1.273804971843123</v>
       </c>
       <c r="P18">
-        <v>0.9116623683006663</v>
+        <v>1.851790570484129</v>
       </c>
       <c r="Q18">
-        <v>0.9116623683006662</v>
+        <v>1.851790570484129</v>
       </c>
       <c r="R18">
-        <v>0.9118049110480672</v>
+        <v>2.02737646677105</v>
       </c>
       <c r="S18">
-        <v>0.9118049110480672</v>
+        <v>2.02737646677105</v>
       </c>
       <c r="T18">
-        <v>1.140284882215392</v>
+        <v>1.424978423603254</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9473361481011239</v>
+        <v>0.999166917614535</v>
       </c>
       <c r="D19">
-        <v>2.828234699161055</v>
+        <v>1.017070395296713</v>
       </c>
       <c r="E19">
-        <v>0.7663770806279201</v>
+        <v>0.9982218593163976</v>
       </c>
       <c r="F19">
-        <v>0.8177345138703306</v>
+        <v>0.9983098173685256</v>
       </c>
       <c r="G19">
-        <v>0.8177345138703306</v>
+        <v>0.9983098173685256</v>
       </c>
       <c r="H19">
-        <v>1.089010520270741</v>
+        <v>0.9987154711486411</v>
       </c>
       <c r="I19">
-        <v>1.089010520270741</v>
+        <v>0.9987154711486411</v>
       </c>
       <c r="J19">
-        <v>0.9456433278783325</v>
+        <v>0.9995878004959705</v>
       </c>
       <c r="K19">
-        <v>0.8177345138703306</v>
+        <v>0.9983098173685256</v>
       </c>
       <c r="L19">
-        <v>0.9456433278783325</v>
+        <v>0.9995878004959705</v>
       </c>
       <c r="M19">
-        <v>1.017326924074537</v>
+        <v>0.9991516358223058</v>
       </c>
       <c r="N19">
-        <v>1.017326924074537</v>
+        <v>0.9991516358223058</v>
       </c>
       <c r="O19">
-        <v>0.9336769762589978</v>
+        <v>0.9988417103203364</v>
       </c>
       <c r="P19">
-        <v>0.9507961206731346</v>
+        <v>0.9988710296710458</v>
       </c>
       <c r="Q19">
-        <v>0.9507961206731346</v>
+        <v>0.9988710296710458</v>
       </c>
       <c r="R19">
-        <v>0.9175307189724335</v>
+        <v>0.9987307265954157</v>
       </c>
       <c r="S19">
-        <v>0.9175307189724335</v>
+        <v>0.9987307265954157</v>
       </c>
       <c r="T19">
-        <v>1.232389381651584</v>
+        <v>1.001845376873464</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.988636812972019</v>
+        <v>0.9971208447576549</v>
       </c>
       <c r="D20">
-        <v>1.015454001249245</v>
+        <v>1.038750560666906</v>
       </c>
       <c r="E20">
-        <v>1.00101499170877</v>
+        <v>0.9958634256586336</v>
       </c>
       <c r="F20">
-        <v>1.027906712962076</v>
+        <v>0.9961438103362551</v>
       </c>
       <c r="G20">
-        <v>1.027906712962076</v>
+        <v>0.9961438103362551</v>
       </c>
       <c r="H20">
-        <v>1.004458331312995</v>
+        <v>0.9915835768305432</v>
       </c>
       <c r="I20">
-        <v>1.004458331312995</v>
+        <v>0.9915835768305432</v>
       </c>
       <c r="J20">
-        <v>0.9909719345330799</v>
+        <v>1.000238640747852</v>
       </c>
       <c r="K20">
-        <v>1.027906712962076</v>
+        <v>0.9961438103362551</v>
       </c>
       <c r="L20">
-        <v>0.9909719345330799</v>
+        <v>1.000238640747852</v>
       </c>
       <c r="M20">
-        <v>0.9977151329230376</v>
+        <v>0.9959111087891978</v>
       </c>
       <c r="N20">
-        <v>0.9977151329230376</v>
+        <v>0.9959111087891978</v>
       </c>
       <c r="O20">
-        <v>0.998815085851615</v>
+        <v>0.995895214412343</v>
       </c>
       <c r="P20">
-        <v>1.00777899293605</v>
+        <v>0.9959886759715503</v>
       </c>
       <c r="Q20">
-        <v>1.00777899293605</v>
+        <v>0.9959886759715501</v>
       </c>
       <c r="R20">
-        <v>1.012810922942557</v>
+        <v>0.9960274595627263</v>
       </c>
       <c r="S20">
-        <v>1.012810922942557</v>
+        <v>0.9960274595627263</v>
       </c>
       <c r="T20">
-        <v>1.004740464123031</v>
+        <v>1.003283476499641</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.004656710321109</v>
+        <v>0.9947769610572894</v>
       </c>
       <c r="D21">
-        <v>1.026983217820353</v>
+        <v>1.03223967381381</v>
       </c>
       <c r="E21">
-        <v>0.9946282149027493</v>
+        <v>0.9965115907343304</v>
       </c>
       <c r="F21">
-        <v>0.9336314740532857</v>
+        <v>1.032745654985226</v>
       </c>
       <c r="G21">
-        <v>0.9336314740532857</v>
+        <v>1.032745654985226</v>
       </c>
       <c r="H21">
-        <v>1.015151243439434</v>
+        <v>1.008002141846728</v>
       </c>
       <c r="I21">
-        <v>1.015151243439434</v>
+        <v>1.008002141846728</v>
       </c>
       <c r="J21">
-        <v>1.019046313998567</v>
+        <v>1.020075329623922</v>
       </c>
       <c r="K21">
-        <v>0.9336314740532857</v>
+        <v>1.032745654985226</v>
       </c>
       <c r="L21">
-        <v>1.019046313998567</v>
+        <v>1.020075329623922</v>
       </c>
       <c r="M21">
-        <v>1.017098778719001</v>
+        <v>1.014038735735325</v>
       </c>
       <c r="N21">
-        <v>1.017098778719001</v>
+        <v>1.014038735735325</v>
       </c>
       <c r="O21">
-        <v>1.00960859078025</v>
+        <v>1.008196354068327</v>
       </c>
       <c r="P21">
-        <v>0.989276343830429</v>
+        <v>1.020274375485292</v>
       </c>
       <c r="Q21">
-        <v>0.989276343830429</v>
+        <v>1.020274375485292</v>
       </c>
       <c r="R21">
-        <v>0.9753651263861431</v>
+        <v>1.023392195360276</v>
       </c>
       <c r="S21">
-        <v>0.9753651263861431</v>
+        <v>1.023392195360276</v>
       </c>
       <c r="T21">
-        <v>0.9990161957559164</v>
+        <v>1.014058558676884</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8993944615856085</v>
+        <v>1.007664326830499</v>
       </c>
       <c r="D22">
-        <v>1.091274595236276</v>
+        <v>1.107364104626155</v>
       </c>
       <c r="E22">
-        <v>0.9773298617719505</v>
+        <v>0.9884015927108242</v>
       </c>
       <c r="F22">
-        <v>1.100901595565339</v>
+        <v>1.017402232838984</v>
       </c>
       <c r="G22">
-        <v>1.100901595565339</v>
+        <v>1.017402232838984</v>
       </c>
       <c r="H22">
-        <v>1.006847522593037</v>
+        <v>0.9760269532198242</v>
       </c>
       <c r="I22">
-        <v>1.006847522593037</v>
+        <v>0.9760269532198242</v>
       </c>
       <c r="J22">
-        <v>1.079420336489672</v>
+        <v>1.015691554013675</v>
       </c>
       <c r="K22">
-        <v>1.100901595565339</v>
+        <v>1.017402232838984</v>
       </c>
       <c r="L22">
-        <v>1.079420336489672</v>
+        <v>1.015691554013675</v>
       </c>
       <c r="M22">
-        <v>1.043133929541355</v>
+        <v>0.9958592536167495</v>
       </c>
       <c r="N22">
-        <v>1.043133929541355</v>
+        <v>0.9958592536167495</v>
       </c>
       <c r="O22">
-        <v>1.021199240284887</v>
+        <v>0.9933733666481078</v>
       </c>
       <c r="P22">
-        <v>1.062389818216016</v>
+        <v>1.003040246690828</v>
       </c>
       <c r="Q22">
-        <v>1.062389818216016</v>
+        <v>1.003040246690828</v>
       </c>
       <c r="R22">
-        <v>1.072017762553347</v>
+        <v>1.006630743227867</v>
       </c>
       <c r="S22">
-        <v>1.072017762553347</v>
+        <v>1.006630743227867</v>
       </c>
       <c r="T22">
-        <v>1.025861395540314</v>
+        <v>1.01875846070666</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9512981726816829</v>
+      </c>
+      <c r="D23">
+        <v>1.144871781005563</v>
+      </c>
+      <c r="E23">
+        <v>1.078232386087562</v>
+      </c>
+      <c r="F23">
+        <v>1.177543563225089</v>
+      </c>
+      <c r="G23">
+        <v>1.177543563225089</v>
+      </c>
+      <c r="H23">
+        <v>1.101169656870749</v>
+      </c>
+      <c r="I23">
+        <v>1.101169656870749</v>
+      </c>
+      <c r="J23">
+        <v>1.093623645126621</v>
+      </c>
+      <c r="K23">
+        <v>1.177543563225089</v>
+      </c>
+      <c r="L23">
+        <v>1.093623645126621</v>
+      </c>
+      <c r="M23">
+        <v>1.097396650998685</v>
+      </c>
+      <c r="N23">
+        <v>1.097396650998685</v>
+      </c>
+      <c r="O23">
+        <v>1.091008562694977</v>
+      </c>
+      <c r="P23">
+        <v>1.124112288407487</v>
+      </c>
+      <c r="Q23">
+        <v>1.124112288407487</v>
+      </c>
+      <c r="R23">
+        <v>1.137470107111887</v>
+      </c>
+      <c r="S23">
+        <v>1.137470107111887</v>
+      </c>
+      <c r="T23">
+        <v>1.091123200832878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9381371703097399</v>
+      </c>
+      <c r="D24">
+        <v>-0.0002100385357524366</v>
+      </c>
+      <c r="E24">
+        <v>0.4354435678309616</v>
+      </c>
+      <c r="F24">
+        <v>1.241685068854794</v>
+      </c>
+      <c r="G24">
+        <v>1.241685068854794</v>
+      </c>
+      <c r="H24">
+        <v>0.449016127050007</v>
+      </c>
+      <c r="I24">
+        <v>0.449016127050007</v>
+      </c>
+      <c r="J24">
+        <v>0.1070690239220181</v>
+      </c>
+      <c r="K24">
+        <v>1.241685068854794</v>
+      </c>
+      <c r="L24">
+        <v>0.1070690239220181</v>
+      </c>
+      <c r="M24">
+        <v>0.2780425754860125</v>
+      </c>
+      <c r="N24">
+        <v>0.2780425754860125</v>
+      </c>
+      <c r="O24">
+        <v>0.3305095729343289</v>
+      </c>
+      <c r="P24">
+        <v>0.5992567399422731</v>
+      </c>
+      <c r="Q24">
+        <v>0.5992567399422731</v>
+      </c>
+      <c r="R24">
+        <v>0.7598638221704035</v>
+      </c>
+      <c r="S24">
+        <v>0.7598638221704035</v>
+      </c>
+      <c r="T24">
+        <v>0.5285234865719614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9547815606178326</v>
+      </c>
+      <c r="D25">
+        <v>0.7306637664362051</v>
+      </c>
+      <c r="E25">
+        <v>1.407610290818055</v>
+      </c>
+      <c r="F25">
+        <v>0.9651220927888982</v>
+      </c>
+      <c r="G25">
+        <v>0.9651220927888982</v>
+      </c>
+      <c r="H25">
+        <v>1.297638248826563</v>
+      </c>
+      <c r="I25">
+        <v>1.297638248826563</v>
+      </c>
+      <c r="J25">
+        <v>1.815688649196343</v>
+      </c>
+      <c r="K25">
+        <v>0.9651220927888982</v>
+      </c>
+      <c r="L25">
+        <v>1.815688649196343</v>
+      </c>
+      <c r="M25">
+        <v>1.556663449011453</v>
+      </c>
+      <c r="N25">
+        <v>1.556663449011453</v>
+      </c>
+      <c r="O25">
+        <v>1.506979062946987</v>
+      </c>
+      <c r="P25">
+        <v>1.359482996937268</v>
+      </c>
+      <c r="Q25">
+        <v>1.359482996937268</v>
+      </c>
+      <c r="R25">
+        <v>1.260892770900176</v>
+      </c>
+      <c r="S25">
+        <v>1.260892770900176</v>
+      </c>
+      <c r="T25">
+        <v>1.195250768113983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9363853553797205</v>
+      </c>
+      <c r="D26">
+        <v>-2.52333402309061E-05</v>
+      </c>
+      <c r="E26">
+        <v>1.639652865097361</v>
+      </c>
+      <c r="F26">
+        <v>0.2863274522064885</v>
+      </c>
+      <c r="G26">
+        <v>0.2863274522064885</v>
+      </c>
+      <c r="H26">
+        <v>0.1533630248853514</v>
+      </c>
+      <c r="I26">
+        <v>0.1533630248853514</v>
+      </c>
+      <c r="J26">
+        <v>0.6527204753933006</v>
+      </c>
+      <c r="K26">
+        <v>0.2863274522064885</v>
+      </c>
+      <c r="L26">
+        <v>0.6527204753933006</v>
+      </c>
+      <c r="M26">
+        <v>0.403041750139326</v>
+      </c>
+      <c r="N26">
+        <v>0.403041750139326</v>
+      </c>
+      <c r="O26">
+        <v>0.8152454551253377</v>
+      </c>
+      <c r="P26">
+        <v>0.3641369841617135</v>
+      </c>
+      <c r="Q26">
+        <v>0.3641369841617135</v>
+      </c>
+      <c r="R26">
+        <v>0.3446846011729073</v>
+      </c>
+      <c r="S26">
+        <v>0.3446846011729073</v>
+      </c>
+      <c r="T26">
+        <v>0.6114039899369986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.026606045801828</v>
+      </c>
+      <c r="D27">
+        <v>0.281633614831417</v>
+      </c>
+      <c r="E27">
+        <v>1.149097879653314</v>
+      </c>
+      <c r="F27">
+        <v>1.431500214945061</v>
+      </c>
+      <c r="G27">
+        <v>1.431500214945061</v>
+      </c>
+      <c r="H27">
+        <v>3.714159919474402</v>
+      </c>
+      <c r="I27">
+        <v>3.714159919474402</v>
+      </c>
+      <c r="J27">
+        <v>0.9205660056265996</v>
+      </c>
+      <c r="K27">
+        <v>1.431500214945061</v>
+      </c>
+      <c r="L27">
+        <v>0.9205660056265996</v>
+      </c>
+      <c r="M27">
+        <v>2.317362962550501</v>
+      </c>
+      <c r="N27">
+        <v>2.317362962550501</v>
+      </c>
+      <c r="O27">
+        <v>1.927941268251438</v>
+      </c>
+      <c r="P27">
+        <v>2.022075380015354</v>
+      </c>
+      <c r="Q27">
+        <v>2.022075380015354</v>
+      </c>
+      <c r="R27">
+        <v>1.874431588747781</v>
+      </c>
+      <c r="S27">
+        <v>1.874431588747781</v>
+      </c>
+      <c r="T27">
+        <v>1.420593946722104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.591949119105427</v>
+      </c>
+      <c r="D28">
+        <v>0.5804994832185575</v>
+      </c>
+      <c r="E28">
+        <v>0.204031787295144</v>
+      </c>
+      <c r="F28">
+        <v>2.924102868913081</v>
+      </c>
+      <c r="G28">
+        <v>2.924102868913081</v>
+      </c>
+      <c r="H28">
+        <v>0.1958062909882113</v>
+      </c>
+      <c r="I28">
+        <v>0.1958062909882113</v>
+      </c>
+      <c r="J28">
+        <v>1.596393651300418</v>
+      </c>
+      <c r="K28">
+        <v>2.924102868913081</v>
+      </c>
+      <c r="L28">
+        <v>1.596393651300418</v>
+      </c>
+      <c r="M28">
+        <v>0.8960999711443145</v>
+      </c>
+      <c r="N28">
+        <v>0.8960999711443145</v>
+      </c>
+      <c r="O28">
+        <v>0.6654105765279243</v>
+      </c>
+      <c r="P28">
+        <v>1.572100937067236</v>
+      </c>
+      <c r="Q28">
+        <v>1.572100937067237</v>
+      </c>
+      <c r="R28">
+        <v>1.910101420028698</v>
+      </c>
+      <c r="S28">
+        <v>1.910101420028698</v>
+      </c>
+      <c r="T28">
+        <v>1.18213053347014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.385074444739075</v>
+      </c>
+      <c r="D29">
+        <v>1.166618380541279</v>
+      </c>
+      <c r="E29">
+        <v>0.4057108758110561</v>
+      </c>
+      <c r="F29">
+        <v>2.245511980502009</v>
+      </c>
+      <c r="G29">
+        <v>2.245511980502009</v>
+      </c>
+      <c r="H29">
+        <v>0.3904683592834121</v>
+      </c>
+      <c r="I29">
+        <v>0.3904683592834121</v>
+      </c>
+      <c r="J29">
+        <v>1.405818298888763</v>
+      </c>
+      <c r="K29">
+        <v>2.245511980502009</v>
+      </c>
+      <c r="L29">
+        <v>1.405818298888763</v>
+      </c>
+      <c r="M29">
+        <v>0.8981433290860874</v>
+      </c>
+      <c r="N29">
+        <v>0.8981433290860874</v>
+      </c>
+      <c r="O29">
+        <v>0.7339991779944103</v>
+      </c>
+      <c r="P29">
+        <v>1.347266212891395</v>
+      </c>
+      <c r="Q29">
+        <v>1.347266212891395</v>
+      </c>
+      <c r="R29">
+        <v>1.571827654794048</v>
+      </c>
+      <c r="S29">
+        <v>1.571827654794048</v>
+      </c>
+      <c r="T29">
+        <v>1.166533723294266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9789972430525405</v>
+      </c>
+      <c r="D30">
+        <v>2.323891621229206</v>
+      </c>
+      <c r="E30">
+        <v>0.8038333241086087</v>
+      </c>
+      <c r="F30">
+        <v>0.91223253929027</v>
+      </c>
+      <c r="G30">
+        <v>0.91223253929027</v>
+      </c>
+      <c r="H30">
+        <v>0.7808768236076057</v>
+      </c>
+      <c r="I30">
+        <v>0.7808768236076057</v>
+      </c>
+      <c r="J30">
+        <v>1.041877742004123</v>
+      </c>
+      <c r="K30">
+        <v>0.91223253929027</v>
+      </c>
+      <c r="L30">
+        <v>1.041877742004123</v>
+      </c>
+      <c r="M30">
+        <v>0.9113772828058644</v>
+      </c>
+      <c r="N30">
+        <v>0.9113772828058644</v>
+      </c>
+      <c r="O30">
+        <v>0.8755292965734459</v>
+      </c>
+      <c r="P30">
+        <v>0.9116623683006663</v>
+      </c>
+      <c r="Q30">
+        <v>0.9116623683006662</v>
+      </c>
+      <c r="R30">
+        <v>0.9118049110480672</v>
+      </c>
+      <c r="S30">
+        <v>0.9118049110480672</v>
+      </c>
+      <c r="T30">
+        <v>1.140284882215392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9473361481011239</v>
+      </c>
+      <c r="D31">
+        <v>2.828234699161055</v>
+      </c>
+      <c r="E31">
+        <v>0.7663770806279201</v>
+      </c>
+      <c r="F31">
+        <v>0.8177345138703306</v>
+      </c>
+      <c r="G31">
+        <v>0.8177345138703306</v>
+      </c>
+      <c r="H31">
+        <v>1.089010520270741</v>
+      </c>
+      <c r="I31">
+        <v>1.089010520270741</v>
+      </c>
+      <c r="J31">
+        <v>0.9456433278783325</v>
+      </c>
+      <c r="K31">
+        <v>0.8177345138703306</v>
+      </c>
+      <c r="L31">
+        <v>0.9456433278783325</v>
+      </c>
+      <c r="M31">
+        <v>1.017326924074537</v>
+      </c>
+      <c r="N31">
+        <v>1.017326924074537</v>
+      </c>
+      <c r="O31">
+        <v>0.9336769762589978</v>
+      </c>
+      <c r="P31">
+        <v>0.9507961206731346</v>
+      </c>
+      <c r="Q31">
+        <v>0.9507961206731346</v>
+      </c>
+      <c r="R31">
+        <v>0.9175307189724335</v>
+      </c>
+      <c r="S31">
+        <v>0.9175307189724335</v>
+      </c>
+      <c r="T31">
+        <v>1.232389381651584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.776471780087671</v>
+      </c>
+      <c r="D32">
+        <v>0.003581270516712328</v>
+      </c>
+      <c r="E32">
+        <v>0.001805428616821918</v>
+      </c>
+      <c r="F32">
+        <v>3.552230321353425</v>
+      </c>
+      <c r="G32">
+        <v>3.552230321353425</v>
+      </c>
+      <c r="H32">
+        <v>0.0006503385671232877</v>
+      </c>
+      <c r="I32">
+        <v>0.0006503385671232877</v>
+      </c>
+      <c r="J32">
+        <v>1.845554366688806</v>
+      </c>
+      <c r="K32">
+        <v>3.552230321353425</v>
+      </c>
+      <c r="L32">
+        <v>1.845554366688806</v>
+      </c>
+      <c r="M32">
+        <v>0.9231023526279647</v>
+      </c>
+      <c r="N32">
+        <v>0.9231023526279647</v>
+      </c>
+      <c r="O32">
+        <v>0.6160033779575838</v>
+      </c>
+      <c r="P32">
+        <v>1.799478342203118</v>
+      </c>
+      <c r="Q32">
+        <v>1.799478342203118</v>
+      </c>
+      <c r="R32">
+        <v>2.237666336990695</v>
+      </c>
+      <c r="S32">
+        <v>2.237666336990695</v>
+      </c>
+      <c r="T32">
+        <v>1.196715584305093</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.536355164911579</v>
+      </c>
+      <c r="D33">
+        <v>1.49396238023621</v>
+      </c>
+      <c r="E33">
+        <v>1.312768462654315</v>
+      </c>
+      <c r="F33">
+        <v>2.502644122532105</v>
+      </c>
+      <c r="G33">
+        <v>2.502644122532105</v>
+      </c>
+      <c r="H33">
+        <v>-0.0004963123000000003</v>
+      </c>
+      <c r="I33">
+        <v>-0.0004963123000000003</v>
+      </c>
+      <c r="J33">
+        <v>1.101893364113684</v>
+      </c>
+      <c r="K33">
+        <v>2.502644122532105</v>
+      </c>
+      <c r="L33">
+        <v>1.101893364113684</v>
+      </c>
+      <c r="M33">
+        <v>0.550698525906842</v>
+      </c>
+      <c r="N33">
+        <v>0.550698525906842</v>
+      </c>
+      <c r="O33">
+        <v>0.8047218381559998</v>
+      </c>
+      <c r="P33">
+        <v>1.201347058115263</v>
+      </c>
+      <c r="Q33">
+        <v>1.201347058115263</v>
+      </c>
+      <c r="R33">
+        <v>1.526671324219474</v>
+      </c>
+      <c r="S33">
+        <v>1.526671324219474</v>
+      </c>
+      <c r="T33">
+        <v>1.157854530357982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.1330933833863158</v>
+      </c>
+      <c r="D34">
+        <v>5.586939591918419</v>
+      </c>
+      <c r="E34">
+        <v>0.03191780924747369</v>
+      </c>
+      <c r="F34">
+        <v>1.704637122014458</v>
+      </c>
+      <c r="G34">
+        <v>1.704637122014458</v>
+      </c>
+      <c r="H34">
+        <v>3.406929710674737</v>
+      </c>
+      <c r="I34">
+        <v>3.406929710674737</v>
+      </c>
+      <c r="J34">
+        <v>1.864659883761053</v>
+      </c>
+      <c r="K34">
+        <v>1.704637122014458</v>
+      </c>
+      <c r="L34">
+        <v>1.864659883761053</v>
+      </c>
+      <c r="M34">
+        <v>2.635794797217895</v>
+      </c>
+      <c r="N34">
+        <v>2.635794797217895</v>
+      </c>
+      <c r="O34">
+        <v>1.767835801227754</v>
+      </c>
+      <c r="P34">
+        <v>2.325408905483416</v>
+      </c>
+      <c r="Q34">
+        <v>2.325408905483416</v>
+      </c>
+      <c r="R34">
+        <v>2.170215959616177</v>
+      </c>
+      <c r="S34">
+        <v>2.170215959616177</v>
+      </c>
+      <c r="T34">
+        <v>2.121362916833743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4850310305477711</v>
+      </c>
+      <c r="D35">
+        <v>10.22904709024263</v>
+      </c>
+      <c r="E35">
+        <v>0.4100427057705109</v>
+      </c>
+      <c r="F35">
+        <v>0.4485200879954609</v>
+      </c>
+      <c r="G35">
+        <v>0.4485200879954609</v>
+      </c>
+      <c r="H35">
+        <v>0.3910525351619241</v>
+      </c>
+      <c r="I35">
+        <v>0.3910525351619241</v>
+      </c>
+      <c r="J35">
+        <v>0.5227849123259108</v>
+      </c>
+      <c r="K35">
+        <v>0.4485200879954609</v>
+      </c>
+      <c r="L35">
+        <v>0.5227849123259108</v>
+      </c>
+      <c r="M35">
+        <v>0.4569187237439175</v>
+      </c>
+      <c r="N35">
+        <v>0.4569187237439175</v>
+      </c>
+      <c r="O35">
+        <v>0.4412933844194487</v>
+      </c>
+      <c r="P35">
+        <v>0.4541191784944319</v>
+      </c>
+      <c r="Q35">
+        <v>0.4541191784944319</v>
+      </c>
+      <c r="R35">
+        <v>0.4527194058696892</v>
+      </c>
+      <c r="S35">
+        <v>0.4527194058696892</v>
+      </c>
+      <c r="T35">
+        <v>2.081079727007369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.988636812972019</v>
+      </c>
+      <c r="D36">
+        <v>1.015454001249245</v>
+      </c>
+      <c r="E36">
+        <v>1.00101499170877</v>
+      </c>
+      <c r="F36">
+        <v>1.027906712962076</v>
+      </c>
+      <c r="G36">
+        <v>1.027906712962076</v>
+      </c>
+      <c r="H36">
+        <v>1.004458331312995</v>
+      </c>
+      <c r="I36">
+        <v>1.004458331312995</v>
+      </c>
+      <c r="J36">
+        <v>0.9909719345330799</v>
+      </c>
+      <c r="K36">
+        <v>1.027906712962076</v>
+      </c>
+      <c r="L36">
+        <v>0.9909719345330799</v>
+      </c>
+      <c r="M36">
+        <v>0.9977151329230376</v>
+      </c>
+      <c r="N36">
+        <v>0.9977151329230376</v>
+      </c>
+      <c r="O36">
+        <v>0.998815085851615</v>
+      </c>
+      <c r="P36">
+        <v>1.00777899293605</v>
+      </c>
+      <c r="Q36">
+        <v>1.00777899293605</v>
+      </c>
+      <c r="R36">
+        <v>1.012810922942557</v>
+      </c>
+      <c r="S36">
+        <v>1.012810922942557</v>
+      </c>
+      <c r="T36">
+        <v>1.004740464123031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.004656710321109</v>
+      </c>
+      <c r="D37">
+        <v>1.026983217820353</v>
+      </c>
+      <c r="E37">
+        <v>0.9946282149027493</v>
+      </c>
+      <c r="F37">
+        <v>0.9336314740532857</v>
+      </c>
+      <c r="G37">
+        <v>0.9336314740532857</v>
+      </c>
+      <c r="H37">
+        <v>1.015151243439434</v>
+      </c>
+      <c r="I37">
+        <v>1.015151243439434</v>
+      </c>
+      <c r="J37">
+        <v>1.019046313998567</v>
+      </c>
+      <c r="K37">
+        <v>0.9336314740532857</v>
+      </c>
+      <c r="L37">
+        <v>1.019046313998567</v>
+      </c>
+      <c r="M37">
+        <v>1.017098778719001</v>
+      </c>
+      <c r="N37">
+        <v>1.017098778719001</v>
+      </c>
+      <c r="O37">
+        <v>1.00960859078025</v>
+      </c>
+      <c r="P37">
+        <v>0.989276343830429</v>
+      </c>
+      <c r="Q37">
+        <v>0.989276343830429</v>
+      </c>
+      <c r="R37">
+        <v>0.9753651263861431</v>
+      </c>
+      <c r="S37">
+        <v>0.9753651263861431</v>
+      </c>
+      <c r="T37">
+        <v>0.9990161957559164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.8993944615856085</v>
+      </c>
+      <c r="D38">
+        <v>1.091274595236276</v>
+      </c>
+      <c r="E38">
+        <v>0.9773298617719505</v>
+      </c>
+      <c r="F38">
+        <v>1.100901595565339</v>
+      </c>
+      <c r="G38">
+        <v>1.100901595565339</v>
+      </c>
+      <c r="H38">
+        <v>1.006847522593037</v>
+      </c>
+      <c r="I38">
+        <v>1.006847522593037</v>
+      </c>
+      <c r="J38">
+        <v>1.079420336489672</v>
+      </c>
+      <c r="K38">
+        <v>1.100901595565339</v>
+      </c>
+      <c r="L38">
+        <v>1.079420336489672</v>
+      </c>
+      <c r="M38">
+        <v>1.043133929541355</v>
+      </c>
+      <c r="N38">
+        <v>1.043133929541355</v>
+      </c>
+      <c r="O38">
+        <v>1.021199240284887</v>
+      </c>
+      <c r="P38">
+        <v>1.062389818216016</v>
+      </c>
+      <c r="Q38">
+        <v>1.062389818216016</v>
+      </c>
+      <c r="R38">
+        <v>1.072017762553347</v>
+      </c>
+      <c r="S38">
+        <v>1.072017762553347</v>
+      </c>
+      <c r="T38">
+        <v>1.025861395540314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.8582937982685956</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9271107926505566</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9594978587760234</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.520174519614363</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.520174519614363</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.005236776924058</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.005236776924058</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9612187849574469</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.520174519614363</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9612187849574469</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9832277809407527</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9832277809407527</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.975317806885843</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.162210027165289</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.16221002716529</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.251701150277558</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.251701150277558</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.038588755198507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9612241648469891</v>
+      </c>
+      <c r="D40">
+        <v>0.9029230159405705</v>
+      </c>
+      <c r="E40">
+        <v>0.8830945102864443</v>
+      </c>
+      <c r="F40">
+        <v>1.893294691621805</v>
+      </c>
+      <c r="G40">
+        <v>1.893294691621805</v>
+      </c>
+      <c r="H40">
+        <v>0.8059724728285267</v>
+      </c>
+      <c r="I40">
+        <v>0.8059724728285267</v>
+      </c>
+      <c r="J40">
+        <v>0.9016941895756073</v>
+      </c>
+      <c r="K40">
+        <v>1.893294691621805</v>
+      </c>
+      <c r="L40">
+        <v>0.9016941895756073</v>
+      </c>
+      <c r="M40">
+        <v>0.8538333312020669</v>
+      </c>
+      <c r="N40">
+        <v>0.8538333312020669</v>
+      </c>
+      <c r="O40">
+        <v>0.8635870575635259</v>
+      </c>
+      <c r="P40">
+        <v>1.200320451341979</v>
+      </c>
+      <c r="Q40">
+        <v>1.20032045134198</v>
+      </c>
+      <c r="R40">
+        <v>1.373564011411936</v>
+      </c>
+      <c r="S40">
+        <v>1.373564011411936</v>
+      </c>
+      <c r="T40">
+        <v>1.05803384084999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9836896781160774</v>
+      </c>
+      <c r="D41">
+        <v>1.094869073251332</v>
+      </c>
+      <c r="E41">
+        <v>1.010920730845124</v>
+      </c>
+      <c r="F41">
+        <v>0.9322934353782015</v>
+      </c>
+      <c r="G41">
+        <v>0.9322934353782015</v>
+      </c>
+      <c r="H41">
+        <v>1.082349459556024</v>
+      </c>
+      <c r="I41">
+        <v>1.082349459556024</v>
+      </c>
+      <c r="J41">
+        <v>0.9859560533041172</v>
+      </c>
+      <c r="K41">
+        <v>0.9322934353782015</v>
+      </c>
+      <c r="L41">
+        <v>0.9859560533041172</v>
+      </c>
+      <c r="M41">
+        <v>1.034152756430071</v>
+      </c>
+      <c r="N41">
+        <v>1.034152756430071</v>
+      </c>
+      <c r="O41">
+        <v>1.026408747901755</v>
+      </c>
+      <c r="P41">
+        <v>1.000199649412781</v>
+      </c>
+      <c r="Q41">
+        <v>1.000199649412781</v>
+      </c>
+      <c r="R41">
+        <v>0.9832230959041361</v>
+      </c>
+      <c r="S41">
+        <v>0.9832230959041361</v>
+      </c>
+      <c r="T41">
+        <v>1.015013071741812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.159461642807454</v>
+      </c>
+      <c r="D42">
+        <v>1.37672508754397</v>
+      </c>
+      <c r="E42">
+        <v>0.4656905126704138</v>
+      </c>
+      <c r="F42">
+        <v>1.986393442225612</v>
+      </c>
+      <c r="G42">
+        <v>1.986393442225612</v>
+      </c>
+      <c r="H42">
+        <v>0.4314619287503794</v>
+      </c>
+      <c r="I42">
+        <v>0.4314619287503794</v>
+      </c>
+      <c r="J42">
+        <v>1.080016796611267</v>
+      </c>
+      <c r="K42">
+        <v>1.986393442225612</v>
+      </c>
+      <c r="L42">
+        <v>1.080016796611267</v>
+      </c>
+      <c r="M42">
+        <v>0.7557393626808231</v>
+      </c>
+      <c r="N42">
+        <v>0.7557393626808231</v>
+      </c>
+      <c r="O42">
+        <v>0.6590564126773534</v>
+      </c>
+      <c r="P42">
+        <v>1.165957389195753</v>
+      </c>
+      <c r="Q42">
+        <v>1.165957389195753</v>
+      </c>
+      <c r="R42">
+        <v>1.371066402453218</v>
+      </c>
+      <c r="S42">
+        <v>1.371066402453218</v>
+      </c>
+      <c r="T42">
+        <v>1.083291568434849</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.112753773557184</v>
+        <v>0.9971208447576549</v>
       </c>
       <c r="D3">
-        <v>0.9607936322357002</v>
+        <v>1.038750560666906</v>
       </c>
       <c r="E3">
-        <v>1.039611688323167</v>
+        <v>0.9958634256586336</v>
       </c>
       <c r="F3">
-        <v>1.112753773557184</v>
+        <v>0.9961438103362551</v>
       </c>
       <c r="G3">
-        <v>0.9729280451566664</v>
+        <v>0.9961438103362551</v>
       </c>
       <c r="H3">
-        <v>0.9530845972601344</v>
+        <v>0.9915835768305432</v>
       </c>
       <c r="I3">
-        <v>1.029429725762656</v>
+        <v>0.9915835768305432</v>
       </c>
       <c r="J3">
-        <v>0.9607936322357002</v>
+        <v>1.000238640747852</v>
       </c>
       <c r="K3">
-        <v>1.112753773557184</v>
+        <v>0.9961438103362551</v>
       </c>
       <c r="L3">
-        <v>1.039611688323167</v>
+        <v>1.000238640747852</v>
       </c>
       <c r="M3">
-        <v>1.000202660279433</v>
+        <v>0.9959111087891978</v>
       </c>
       <c r="N3">
-        <v>1.000202660279433</v>
+        <v>0.9959111087891978</v>
       </c>
       <c r="O3">
-        <v>0.9844966392730004</v>
+        <v>0.995895214412343</v>
       </c>
       <c r="P3">
-        <v>1.037719698038684</v>
+        <v>0.9959886759715503</v>
       </c>
       <c r="Q3">
-        <v>1.037719698038684</v>
+        <v>0.9959886759715501</v>
       </c>
       <c r="R3">
-        <v>1.056478216918309</v>
+        <v>0.9960274595627263</v>
       </c>
       <c r="S3">
-        <v>1.056478216918309</v>
+        <v>0.9960274595627263</v>
       </c>
       <c r="T3">
-        <v>1.011433577049251</v>
+        <v>1.003283476499641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.211053358491132</v>
+        <v>0.9612241648469891</v>
       </c>
       <c r="D4">
-        <v>0.9620574960323734</v>
+        <v>0.9029230159405705</v>
       </c>
       <c r="E4">
-        <v>1.084414578760547</v>
+        <v>0.8830945102864443</v>
       </c>
       <c r="F4">
-        <v>1.211053358491132</v>
+        <v>1.893294691621805</v>
       </c>
       <c r="G4">
-        <v>0.9793850607206441</v>
+        <v>1.893294691621805</v>
       </c>
       <c r="H4">
-        <v>0.9125013052238139</v>
+        <v>0.8059724728285267</v>
       </c>
       <c r="I4">
-        <v>1.059637210383201</v>
+        <v>0.8059724728285267</v>
       </c>
       <c r="J4">
-        <v>0.9620574960323734</v>
+        <v>0.9016941895756073</v>
       </c>
       <c r="K4">
-        <v>1.211053358491132</v>
+        <v>1.893294691621805</v>
       </c>
       <c r="L4">
-        <v>1.084414578760547</v>
+        <v>0.9016941895756073</v>
       </c>
       <c r="M4">
-        <v>1.02323603739646</v>
+        <v>0.8538333312020669</v>
       </c>
       <c r="N4">
-        <v>1.02323603739646</v>
+        <v>0.8538333312020669</v>
       </c>
       <c r="O4">
-        <v>0.9863244600055782</v>
+        <v>0.8635870575635259</v>
       </c>
       <c r="P4">
-        <v>1.085841811094684</v>
+        <v>1.200320451341979</v>
       </c>
       <c r="Q4">
-        <v>1.085841811094684</v>
+        <v>1.20032045134198</v>
       </c>
       <c r="R4">
-        <v>1.117144697943796</v>
+        <v>1.373564011411936</v>
       </c>
       <c r="S4">
-        <v>1.117144697943796</v>
+        <v>1.373564011411936</v>
       </c>
       <c r="T4">
-        <v>1.034841501601952</v>
+        <v>1.05803384084999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.580613731800601</v>
+        <v>0.9560813193559221</v>
       </c>
       <c r="D5">
-        <v>0.9011132315998287</v>
+        <v>2.710761512148929</v>
       </c>
       <c r="E5">
-        <v>1.152503702487551</v>
+        <v>0.7615173651328766</v>
       </c>
       <c r="F5">
-        <v>1.580613731800601</v>
+        <v>0.9402418200737852</v>
       </c>
       <c r="G5">
-        <v>1.067649312866568</v>
+        <v>0.9402418200737852</v>
       </c>
       <c r="H5">
-        <v>0.8457166824307703</v>
+        <v>0.7802433337014134</v>
       </c>
       <c r="I5">
-        <v>1.205743805173127</v>
+        <v>0.7802433337014134</v>
       </c>
       <c r="J5">
-        <v>0.9011132315998287</v>
+        <v>1.024556814739</v>
       </c>
       <c r="K5">
-        <v>1.580613731800601</v>
+        <v>0.9402418200737852</v>
       </c>
       <c r="L5">
-        <v>1.152503702487551</v>
+        <v>1.024556814739</v>
       </c>
       <c r="M5">
-        <v>1.02680846704369</v>
+        <v>0.9024000742202067</v>
       </c>
       <c r="N5">
-        <v>1.02680846704369</v>
+        <v>0.9024000742202067</v>
       </c>
       <c r="O5">
-        <v>0.9664445388393833</v>
+        <v>0.8554391711910968</v>
       </c>
       <c r="P5">
-        <v>1.21141022196266</v>
+        <v>0.9150139895047329</v>
       </c>
       <c r="Q5">
-        <v>1.211410221962661</v>
+        <v>0.9150139895047329</v>
       </c>
       <c r="R5">
-        <v>1.303711099422146</v>
+        <v>0.921320947146996</v>
       </c>
       <c r="S5">
-        <v>1.303711099422146</v>
+        <v>0.921320947146996</v>
       </c>
       <c r="T5">
-        <v>1.125556744393075</v>
+        <v>1.195567027525321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.554134155631811</v>
+        <v>0.4850310305477711</v>
       </c>
       <c r="D6">
-        <v>0.8467560352298451</v>
+        <v>10.22904709024263</v>
       </c>
       <c r="E6">
-        <v>2.154481520590731</v>
+        <v>0.4100427057705109</v>
       </c>
       <c r="F6">
-        <v>2.554134155631811</v>
+        <v>0.4485200879954609</v>
       </c>
       <c r="G6">
-        <v>1.137992544694034</v>
+        <v>0.4485200879954609</v>
       </c>
       <c r="H6">
-        <v>0.8201773597087939</v>
+        <v>0.3910525351619241</v>
       </c>
       <c r="I6">
-        <v>1.03632892576431</v>
+        <v>0.3910525351619241</v>
       </c>
       <c r="J6">
-        <v>0.8467560352298451</v>
+        <v>0.5227849123259108</v>
       </c>
       <c r="K6">
-        <v>2.554134155631811</v>
+        <v>0.4485200879954609</v>
       </c>
       <c r="L6">
-        <v>2.154481520590731</v>
+        <v>0.5227849123259108</v>
       </c>
       <c r="M6">
-        <v>1.500618777910288</v>
+        <v>0.4569187237439175</v>
       </c>
       <c r="N6">
-        <v>1.500618777910288</v>
+        <v>0.4569187237439175</v>
       </c>
       <c r="O6">
-        <v>1.273804971843123</v>
+        <v>0.4412933844194487</v>
       </c>
       <c r="P6">
-        <v>1.851790570484129</v>
+        <v>0.4541191784944319</v>
       </c>
       <c r="Q6">
-        <v>1.851790570484129</v>
+        <v>0.4541191784944319</v>
       </c>
       <c r="R6">
-        <v>2.02737646677105</v>
+        <v>0.4527194058696892</v>
       </c>
       <c r="S6">
-        <v>2.02737646677105</v>
+        <v>0.4527194058696892</v>
       </c>
       <c r="T6">
-        <v>1.424978423603254</v>
+        <v>2.081079727007369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9983098173685259</v>
+        <v>1.030913943668713</v>
       </c>
       <c r="D7">
-        <v>0.9987154711486396</v>
+        <v>0.9649990771338429</v>
       </c>
       <c r="E7">
-        <v>0.9995878004959707</v>
+        <v>0.9524546815841383</v>
       </c>
       <c r="F7">
-        <v>0.9983098173685259</v>
+        <v>1.112981457615426</v>
       </c>
       <c r="G7">
-        <v>1.017070395296712</v>
+        <v>1.112981457615426</v>
       </c>
       <c r="H7">
-        <v>0.9982218593163973</v>
+        <v>0.9602896089421282</v>
       </c>
       <c r="I7">
-        <v>0.9991669176145348</v>
+        <v>0.9602896089421282</v>
       </c>
       <c r="J7">
-        <v>0.9987154711486396</v>
+        <v>1.040527621594435</v>
       </c>
       <c r="K7">
-        <v>0.9983098173685259</v>
+        <v>1.112981457615426</v>
       </c>
       <c r="L7">
-        <v>0.9995878004959707</v>
+        <v>1.040527621594435</v>
       </c>
       <c r="M7">
-        <v>0.9991516358223052</v>
+        <v>1.000408615268282</v>
       </c>
       <c r="N7">
-        <v>0.9991516358223052</v>
+        <v>1.000408615268282</v>
       </c>
       <c r="O7">
-        <v>0.9988417103203359</v>
+        <v>0.9844239707069007</v>
       </c>
       <c r="P7">
-        <v>0.9988710296710455</v>
+        <v>1.037932896050663</v>
       </c>
       <c r="Q7">
-        <v>0.9988710296710455</v>
+        <v>1.037932896050663</v>
       </c>
       <c r="R7">
-        <v>0.9987307265954155</v>
+        <v>1.056695036441854</v>
       </c>
       <c r="S7">
-        <v>0.9987307265954155</v>
+        <v>1.056695036441854</v>
       </c>
       <c r="T7">
-        <v>1.001845376873463</v>
+        <v>1.010361065089781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9961438103362547</v>
+        <v>1.004656710321109</v>
       </c>
       <c r="D8">
-        <v>0.9915835768305434</v>
+        <v>1.026983217820353</v>
       </c>
       <c r="E8">
-        <v>1.000238640747853</v>
+        <v>0.9946282149027493</v>
       </c>
       <c r="F8">
-        <v>0.9961438103362547</v>
+        <v>0.9336314740532857</v>
       </c>
       <c r="G8">
-        <v>1.038750560666903</v>
+        <v>0.9336314740532857</v>
       </c>
       <c r="H8">
-        <v>0.9958634256586339</v>
+        <v>1.015151243439434</v>
       </c>
       <c r="I8">
-        <v>0.9971208447576544</v>
+        <v>1.015151243439434</v>
       </c>
       <c r="J8">
-        <v>0.9915835768305434</v>
+        <v>1.019046313998567</v>
       </c>
       <c r="K8">
-        <v>0.9961438103362547</v>
+        <v>0.9336314740532857</v>
       </c>
       <c r="L8">
-        <v>1.000238640747853</v>
+        <v>1.019046313998567</v>
       </c>
       <c r="M8">
-        <v>0.9959111087891981</v>
+        <v>1.017098778719001</v>
       </c>
       <c r="N8">
-        <v>0.9959111087891981</v>
+        <v>1.017098778719001</v>
       </c>
       <c r="O8">
-        <v>0.9958952144123434</v>
+        <v>1.00960859078025</v>
       </c>
       <c r="P8">
-        <v>0.9959886759715503</v>
+        <v>0.989276343830429</v>
       </c>
       <c r="Q8">
-        <v>0.9959886759715504</v>
+        <v>0.989276343830429</v>
       </c>
       <c r="R8">
-        <v>0.9960274595627264</v>
+        <v>0.9753651263861431</v>
       </c>
       <c r="S8">
-        <v>0.9960274595627264</v>
+        <v>0.9753651263861431</v>
       </c>
       <c r="T8">
-        <v>1.003283476499641</v>
+        <v>0.9990161957559164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.032745654985226</v>
+        <v>1.059637210383201</v>
       </c>
       <c r="D9">
-        <v>1.008002141846729</v>
+        <v>0.9793850607206441</v>
       </c>
       <c r="E9">
-        <v>1.020075329623922</v>
+        <v>0.9125013052238139</v>
       </c>
       <c r="F9">
-        <v>1.032745654985226</v>
+        <v>1.211053358491132</v>
       </c>
       <c r="G9">
-        <v>1.03223967381381</v>
+        <v>1.211053358491132</v>
       </c>
       <c r="H9">
-        <v>0.9965115907343304</v>
+        <v>0.9620574960323734</v>
       </c>
       <c r="I9">
-        <v>0.9947769610572894</v>
+        <v>0.9620574960323734</v>
       </c>
       <c r="J9">
-        <v>1.008002141846729</v>
+        <v>1.084414578760547</v>
       </c>
       <c r="K9">
-        <v>1.032745654985226</v>
+        <v>1.211053358491132</v>
       </c>
       <c r="L9">
-        <v>1.020075329623922</v>
+        <v>1.084414578760547</v>
       </c>
       <c r="M9">
-        <v>1.014038735735325</v>
+        <v>1.02323603739646</v>
       </c>
       <c r="N9">
-        <v>1.014038735735325</v>
+        <v>1.02323603739646</v>
       </c>
       <c r="O9">
-        <v>1.008196354068327</v>
+        <v>0.9863244600055782</v>
       </c>
       <c r="P9">
-        <v>1.020274375485292</v>
+        <v>1.085841811094684</v>
       </c>
       <c r="Q9">
-        <v>1.020274375485292</v>
+        <v>1.085841811094684</v>
       </c>
       <c r="R9">
-        <v>1.023392195360276</v>
+        <v>1.117144697943796</v>
       </c>
       <c r="S9">
-        <v>1.023392195360276</v>
+        <v>1.117144697943796</v>
       </c>
       <c r="T9">
-        <v>1.014058558676884</v>
+        <v>1.034841501601952</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.017402232838984</v>
+        <v>0.4748040310219519</v>
       </c>
       <c r="D10">
-        <v>0.9760269532198242</v>
+        <v>10.43465459185916</v>
       </c>
       <c r="E10">
-        <v>1.015691554013675</v>
+        <v>0.3736796498403204</v>
       </c>
       <c r="F10">
-        <v>1.017402232838984</v>
+        <v>0.4218276863005772</v>
       </c>
       <c r="G10">
-        <v>1.107364104626155</v>
+        <v>0.4218276863005772</v>
       </c>
       <c r="H10">
-        <v>0.9884015927108242</v>
+        <v>0.4752581667704202</v>
       </c>
       <c r="I10">
-        <v>1.007664326830499</v>
+        <v>0.4752581667704202</v>
       </c>
       <c r="J10">
-        <v>0.9760269532198242</v>
+        <v>0.4851485990997925</v>
       </c>
       <c r="K10">
-        <v>1.017402232838984</v>
+        <v>0.4218276863005772</v>
       </c>
       <c r="L10">
-        <v>1.015691554013675</v>
+        <v>0.4851485990997925</v>
       </c>
       <c r="M10">
-        <v>0.9958592536167497</v>
+        <v>0.4802033829351063</v>
       </c>
       <c r="N10">
-        <v>0.9958592536167497</v>
+        <v>0.4802033829351063</v>
       </c>
       <c r="O10">
-        <v>0.9933733666481078</v>
+        <v>0.4446954719035111</v>
       </c>
       <c r="P10">
-        <v>1.003040246690828</v>
+        <v>0.4607448173902633</v>
       </c>
       <c r="Q10">
-        <v>1.003040246690828</v>
+        <v>0.4607448173902632</v>
       </c>
       <c r="R10">
-        <v>1.006630743227867</v>
+        <v>0.4510155346178417</v>
       </c>
       <c r="S10">
-        <v>1.006630743227867</v>
+        <v>0.4510155346178417</v>
       </c>
       <c r="T10">
-        <v>1.01875846070666</v>
+        <v>2.110895454148703</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.177543563225089</v>
+        <v>0.9740775093998407</v>
       </c>
       <c r="D11">
-        <v>1.101169656870749</v>
+        <v>1.043316720709057</v>
       </c>
       <c r="E11">
-        <v>1.093623645126621</v>
+        <v>0.8301740891275352</v>
       </c>
       <c r="F11">
-        <v>1.177543563225089</v>
+        <v>1.894224810528534</v>
       </c>
       <c r="G11">
-        <v>1.144871781005563</v>
+        <v>1.894224810528534</v>
       </c>
       <c r="H11">
-        <v>1.078232386087562</v>
+        <v>0.8473642784177287</v>
       </c>
       <c r="I11">
-        <v>0.9512981726816829</v>
+        <v>0.8473642784177287</v>
       </c>
       <c r="J11">
-        <v>1.101169656870749</v>
+        <v>0.8956117647294476</v>
       </c>
       <c r="K11">
-        <v>1.177543563225089</v>
+        <v>1.894224810528534</v>
       </c>
       <c r="L11">
-        <v>1.093623645126621</v>
+        <v>0.8956117647294476</v>
       </c>
       <c r="M11">
-        <v>1.097396650998685</v>
+        <v>0.8714880215735881</v>
       </c>
       <c r="N11">
-        <v>1.097396650998685</v>
+        <v>0.8714880215735881</v>
       </c>
       <c r="O11">
-        <v>1.091008562694977</v>
+        <v>0.8577167107582371</v>
       </c>
       <c r="P11">
-        <v>1.124112288407486</v>
+        <v>1.21240028455857</v>
       </c>
       <c r="Q11">
-        <v>1.124112288407486</v>
+        <v>1.21240028455857</v>
       </c>
       <c r="R11">
-        <v>1.137470107111887</v>
+        <v>1.382856416051061</v>
       </c>
       <c r="S11">
-        <v>1.137470107111887</v>
+        <v>1.382856416051061</v>
       </c>
       <c r="T11">
-        <v>1.091123200832878</v>
+        <v>1.080794862152024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.241685068854794</v>
+        <v>0.8867075334998528</v>
       </c>
       <c r="D12">
-        <v>0.449016127050007</v>
+        <v>3.300492728445843</v>
       </c>
       <c r="E12">
-        <v>0.1070690239220183</v>
+        <v>0.7119019195329332</v>
       </c>
       <c r="F12">
-        <v>1.241685068854794</v>
+        <v>0.8007212221299759</v>
       </c>
       <c r="G12">
-        <v>-0.0002100385357524321</v>
+        <v>0.8007212221299759</v>
       </c>
       <c r="H12">
-        <v>0.4354435678309614</v>
+        <v>1.015659797053798</v>
       </c>
       <c r="I12">
-        <v>0.9381371703097404</v>
+        <v>1.015659797053798</v>
       </c>
       <c r="J12">
-        <v>0.449016127050007</v>
+        <v>0.9591157225154812</v>
       </c>
       <c r="K12">
-        <v>1.241685068854794</v>
+        <v>0.8007212221299759</v>
       </c>
       <c r="L12">
-        <v>0.1070690239220183</v>
+        <v>0.9591157225154812</v>
       </c>
       <c r="M12">
-        <v>0.2780425754860127</v>
+        <v>0.9873877597846394</v>
       </c>
       <c r="N12">
-        <v>0.2780425754860127</v>
+        <v>0.9873877597846394</v>
       </c>
       <c r="O12">
-        <v>0.3305095729343289</v>
+        <v>0.895559146367404</v>
       </c>
       <c r="P12">
-        <v>0.5992567399422729</v>
+        <v>0.9251655805664183</v>
       </c>
       <c r="Q12">
-        <v>0.5992567399422729</v>
+        <v>0.9251655805664182</v>
       </c>
       <c r="R12">
-        <v>0.759863822170403</v>
+        <v>0.8940544909573076</v>
       </c>
       <c r="S12">
-        <v>0.759863822170403</v>
+        <v>0.8940544909573076</v>
       </c>
       <c r="T12">
-        <v>0.5285234865719614</v>
+        <v>1.279099820529647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9651220927888982</v>
+        <v>0.9543379670147614</v>
       </c>
       <c r="D13">
-        <v>1.297638248826565</v>
+        <v>0.5868027001124585</v>
       </c>
       <c r="E13">
-        <v>1.815688649196343</v>
+        <v>1.057929666695446</v>
       </c>
       <c r="F13">
-        <v>0.9651220927888982</v>
+        <v>1.00296767554604</v>
       </c>
       <c r="G13">
-        <v>0.7306637664362055</v>
+        <v>1.00296767554604</v>
       </c>
       <c r="H13">
-        <v>1.407610290818055</v>
+        <v>1.520000472042016</v>
       </c>
       <c r="I13">
-        <v>0.9547815606178331</v>
+        <v>1.520000472042016</v>
       </c>
       <c r="J13">
-        <v>1.297638248826565</v>
+        <v>0.8623465817169049</v>
       </c>
       <c r="K13">
-        <v>0.9651220927888982</v>
+        <v>1.00296767554604</v>
       </c>
       <c r="L13">
-        <v>1.815688649196343</v>
+        <v>0.8623465817169049</v>
       </c>
       <c r="M13">
-        <v>1.556663449011454</v>
+        <v>1.19117352687946</v>
       </c>
       <c r="N13">
-        <v>1.556663449011454</v>
+        <v>1.19117352687946</v>
       </c>
       <c r="O13">
-        <v>1.506979062946988</v>
+        <v>1.146758906818122</v>
       </c>
       <c r="P13">
-        <v>1.359482996937269</v>
+        <v>1.128438243101654</v>
       </c>
       <c r="Q13">
-        <v>1.359482996937269</v>
+        <v>1.128438243101654</v>
       </c>
       <c r="R13">
-        <v>1.260892770900176</v>
+        <v>1.09707060121275</v>
       </c>
       <c r="S13">
-        <v>1.260892770900176</v>
+        <v>1.09707060121275</v>
       </c>
       <c r="T13">
-        <v>1.195250768113983</v>
+        <v>0.997397510521271</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.2863274522064889</v>
+        <v>0.004888891200000005</v>
       </c>
       <c r="D14">
-        <v>0.1533630248853515</v>
+        <v>18.13430799999999</v>
       </c>
       <c r="E14">
-        <v>0.6527204753933015</v>
+        <v>-5.365078800000002E-05</v>
       </c>
       <c r="F14">
-        <v>0.2863274522064889</v>
+        <v>0.0007142271400000009</v>
       </c>
       <c r="G14">
-        <v>-2.523334023090703E-05</v>
+        <v>0.0007142271400000009</v>
       </c>
       <c r="H14">
-        <v>1.639652865097361</v>
+        <v>0.002110478999999999</v>
       </c>
       <c r="I14">
-        <v>0.9363853553797205</v>
+        <v>0.002110478999999999</v>
       </c>
       <c r="J14">
-        <v>0.1533630248853515</v>
+        <v>0.01091472599999999</v>
       </c>
       <c r="K14">
-        <v>0.2863274522064889</v>
+        <v>0.0007142271400000009</v>
       </c>
       <c r="L14">
-        <v>0.6527204753933015</v>
+        <v>0.01091472599999999</v>
       </c>
       <c r="M14">
-        <v>0.4030417501393265</v>
+        <v>0.006512602499999995</v>
       </c>
       <c r="N14">
-        <v>0.4030417501393265</v>
+        <v>0.006512602499999995</v>
       </c>
       <c r="O14">
-        <v>0.8152454551253379</v>
+        <v>0.004323851403999997</v>
       </c>
       <c r="P14">
-        <v>0.3641369841617139</v>
+        <v>0.00457981071333333</v>
       </c>
       <c r="Q14">
-        <v>0.364136984161714</v>
+        <v>0.00457981071333333</v>
       </c>
       <c r="R14">
-        <v>0.3446846011729077</v>
+        <v>0.003613414819999998</v>
       </c>
       <c r="S14">
-        <v>0.3446846011729077</v>
+        <v>0.003613414819999998</v>
       </c>
       <c r="T14">
-        <v>0.6114039899369986</v>
+        <v>3.025480445425332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.43150021494506</v>
+        <v>0.22911664</v>
       </c>
       <c r="D15">
-        <v>3.714159919474402</v>
+        <v>0.007470925200000001</v>
       </c>
       <c r="E15">
-        <v>0.9205660056265996</v>
+        <v>-0.0044241377</v>
       </c>
       <c r="F15">
-        <v>1.43150021494506</v>
+        <v>0.0046412864</v>
       </c>
       <c r="G15">
-        <v>0.281633614831417</v>
+        <v>0.0046412864</v>
       </c>
       <c r="H15">
-        <v>1.149097879653313</v>
+        <v>-0.0024770734</v>
       </c>
       <c r="I15">
-        <v>1.026606045801828</v>
+        <v>-0.0024770734</v>
       </c>
       <c r="J15">
-        <v>3.714159919474402</v>
+        <v>6.0459081</v>
       </c>
       <c r="K15">
-        <v>1.43150021494506</v>
+        <v>0.0046412864</v>
       </c>
       <c r="L15">
-        <v>0.9205660056265996</v>
+        <v>6.0459081</v>
       </c>
       <c r="M15">
-        <v>2.317362962550501</v>
+        <v>3.0217155133</v>
       </c>
       <c r="N15">
-        <v>2.317362962550501</v>
+        <v>3.0217155133</v>
       </c>
       <c r="O15">
-        <v>1.927941268251438</v>
+        <v>2.0130022963</v>
       </c>
       <c r="P15">
-        <v>2.022075380015354</v>
+        <v>2.016024104333333</v>
       </c>
       <c r="Q15">
-        <v>2.022075380015354</v>
+        <v>2.016024104333333</v>
       </c>
       <c r="R15">
-        <v>1.874431588747781</v>
+        <v>1.51317839985</v>
       </c>
       <c r="S15">
-        <v>1.874431588747781</v>
+        <v>1.51317839985</v>
       </c>
       <c r="T15">
-        <v>1.420593946722103</v>
+        <v>1.04670595675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.027906712962076</v>
+        <v>0.0037430372</v>
       </c>
       <c r="D16">
-        <v>1.004458331312996</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="E16">
-        <v>0.9909719345330805</v>
+        <v>0.0025420957</v>
       </c>
       <c r="F16">
-        <v>1.027906712962076</v>
+        <v>30.381976</v>
       </c>
       <c r="G16">
-        <v>1.015454001249245</v>
+        <v>30.381976</v>
       </c>
       <c r="H16">
-        <v>1.001014991708771</v>
+        <v>0.0030969418</v>
       </c>
       <c r="I16">
-        <v>0.9886368129720182</v>
+        <v>0.0030969418</v>
       </c>
       <c r="J16">
-        <v>1.004458331312996</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="K16">
-        <v>1.027906712962076</v>
+        <v>30.381976</v>
       </c>
       <c r="L16">
-        <v>0.9909719345330805</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M16">
-        <v>0.9977151329230384</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N16">
-        <v>0.9977151329230384</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O16">
-        <v>0.998815085851616</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P16">
-        <v>1.007778992936051</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q16">
-        <v>1.007778992936051</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R16">
-        <v>1.012810922942557</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S16">
-        <v>1.012810922942557</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T16">
-        <v>1.004740464123031</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9336314740532841</v>
+        <v>0.017841842</v>
       </c>
       <c r="D17">
-        <v>1.015151243439434</v>
+        <v>0.0046747712</v>
       </c>
       <c r="E17">
-        <v>1.019046313998567</v>
+        <v>0.056374908</v>
       </c>
       <c r="F17">
-        <v>0.9336314740532841</v>
+        <v>-0.0018170611</v>
       </c>
       <c r="G17">
-        <v>1.026983217820354</v>
+        <v>-0.0018170611</v>
       </c>
       <c r="H17">
-        <v>0.9946282149027499</v>
+        <v>-0.0021070499</v>
       </c>
       <c r="I17">
-        <v>1.004656710321107</v>
+        <v>-0.0021070499</v>
       </c>
       <c r="J17">
-        <v>1.015151243439434</v>
+        <v>0.19156021</v>
       </c>
       <c r="K17">
-        <v>0.9336314740532841</v>
+        <v>-0.0018170611</v>
       </c>
       <c r="L17">
-        <v>1.019046313998567</v>
+        <v>0.19156021</v>
       </c>
       <c r="M17">
-        <v>1.017098778719</v>
+        <v>0.09472658005000002</v>
       </c>
       <c r="N17">
-        <v>1.017098778719</v>
+        <v>0.09472658005000002</v>
       </c>
       <c r="O17">
-        <v>1.00960859078025</v>
+        <v>0.08194268936666668</v>
       </c>
       <c r="P17">
-        <v>0.9892763438304281</v>
+        <v>0.06254536633333335</v>
       </c>
       <c r="Q17">
-        <v>0.9892763438304281</v>
+        <v>0.06254536633333334</v>
       </c>
       <c r="R17">
-        <v>0.975365126386142</v>
+        <v>0.04645475947500001</v>
       </c>
       <c r="S17">
-        <v>0.975365126386142</v>
+        <v>0.04645475947500001</v>
       </c>
       <c r="T17">
-        <v>0.9990161957559157</v>
+        <v>0.04442127003333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.100901595565337</v>
+        <v>1.776471780087671</v>
       </c>
       <c r="D18">
-        <v>1.006847522593038</v>
+        <v>0.003581270516712328</v>
       </c>
       <c r="E18">
-        <v>1.079420336489671</v>
+        <v>0.001805428616821918</v>
       </c>
       <c r="F18">
-        <v>1.100901595565337</v>
+        <v>3.552230321353425</v>
       </c>
       <c r="G18">
-        <v>1.091274595236277</v>
+        <v>3.552230321353425</v>
       </c>
       <c r="H18">
-        <v>0.9773298617719509</v>
+        <v>0.0006503385671232877</v>
       </c>
       <c r="I18">
-        <v>0.8993944615856081</v>
+        <v>0.0006503385671232877</v>
       </c>
       <c r="J18">
-        <v>1.006847522593038</v>
+        <v>1.845554366688806</v>
       </c>
       <c r="K18">
-        <v>1.100901595565337</v>
+        <v>3.552230321353425</v>
       </c>
       <c r="L18">
-        <v>1.079420336489671</v>
+        <v>1.845554366688806</v>
       </c>
       <c r="M18">
-        <v>1.043133929541355</v>
+        <v>0.9231023526279647</v>
       </c>
       <c r="N18">
-        <v>1.043133929541355</v>
+        <v>0.9231023526279647</v>
       </c>
       <c r="O18">
-        <v>1.021199240284887</v>
+        <v>0.6160033779575838</v>
       </c>
       <c r="P18">
-        <v>1.062389818216015</v>
+        <v>1.799478342203118</v>
       </c>
       <c r="Q18">
-        <v>1.062389818216015</v>
+        <v>1.799478342203118</v>
       </c>
       <c r="R18">
-        <v>1.072017762553346</v>
+        <v>2.237666336990695</v>
       </c>
       <c r="S18">
-        <v>1.072017762553346</v>
+        <v>2.237666336990695</v>
       </c>
       <c r="T18">
-        <v>1.025861395540314</v>
+        <v>1.196715584305093</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.520174519614363</v>
+        <v>0.536355164911579</v>
       </c>
       <c r="D19">
-        <v>1.005236776924058</v>
+        <v>1.49396238023621</v>
       </c>
       <c r="E19">
-        <v>0.9612187849574469</v>
+        <v>1.312768462654315</v>
       </c>
       <c r="F19">
-        <v>1.520174519614363</v>
+        <v>2.502644122532105</v>
       </c>
       <c r="G19">
-        <v>0.9271107926505566</v>
+        <v>2.502644122532105</v>
       </c>
       <c r="H19">
-        <v>0.9594978587760234</v>
+        <v>-0.0004963123000000003</v>
       </c>
       <c r="I19">
-        <v>0.8582937982685956</v>
+        <v>-0.0004963123000000003</v>
       </c>
       <c r="J19">
-        <v>1.005236776924058</v>
+        <v>1.101893364113684</v>
       </c>
       <c r="K19">
-        <v>1.520174519614363</v>
+        <v>2.502644122532105</v>
       </c>
       <c r="L19">
-        <v>0.9612187849574469</v>
+        <v>1.101893364113684</v>
       </c>
       <c r="M19">
-        <v>0.9832277809407527</v>
+        <v>0.550698525906842</v>
       </c>
       <c r="N19">
-        <v>0.9832277809407527</v>
+        <v>0.550698525906842</v>
       </c>
       <c r="O19">
-        <v>0.975317806885843</v>
+        <v>0.8047218381559998</v>
       </c>
       <c r="P19">
-        <v>1.162210027165289</v>
+        <v>1.201347058115263</v>
       </c>
       <c r="Q19">
-        <v>1.16221002716529</v>
+        <v>1.201347058115263</v>
       </c>
       <c r="R19">
-        <v>1.251701150277558</v>
+        <v>1.526671324219474</v>
       </c>
       <c r="S19">
-        <v>1.251701150277558</v>
+        <v>1.526671324219474</v>
       </c>
       <c r="T19">
-        <v>1.038588755198507</v>
+        <v>1.157854530357982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.1330933833863158</v>
+      </c>
+      <c r="D20">
+        <v>5.586939591918419</v>
+      </c>
+      <c r="E20">
+        <v>0.03191780924747369</v>
+      </c>
+      <c r="F20">
+        <v>1.704637122014458</v>
+      </c>
+      <c r="G20">
+        <v>1.704637122014458</v>
+      </c>
+      <c r="H20">
+        <v>3.406929710674737</v>
+      </c>
+      <c r="I20">
+        <v>3.406929710674737</v>
+      </c>
+      <c r="J20">
+        <v>1.864659883761053</v>
+      </c>
+      <c r="K20">
+        <v>1.704637122014458</v>
+      </c>
+      <c r="L20">
+        <v>1.864659883761053</v>
+      </c>
+      <c r="M20">
+        <v>2.635794797217895</v>
+      </c>
+      <c r="N20">
+        <v>2.635794797217895</v>
+      </c>
+      <c r="O20">
+        <v>1.767835801227754</v>
+      </c>
+      <c r="P20">
+        <v>2.325408905483416</v>
+      </c>
+      <c r="Q20">
+        <v>2.325408905483416</v>
+      </c>
+      <c r="R20">
+        <v>2.170215959616177</v>
+      </c>
+      <c r="S20">
+        <v>2.170215959616177</v>
+      </c>
+      <c r="T20">
+        <v>2.121362916833743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9363853553797205</v>
+      </c>
+      <c r="D21">
+        <v>-2.52333402309061E-05</v>
+      </c>
+      <c r="E21">
+        <v>1.639652865097361</v>
+      </c>
+      <c r="F21">
+        <v>0.2863274522064885</v>
+      </c>
+      <c r="G21">
+        <v>0.2863274522064885</v>
+      </c>
+      <c r="H21">
+        <v>0.1533630248853514</v>
+      </c>
+      <c r="I21">
+        <v>0.1533630248853514</v>
+      </c>
+      <c r="J21">
+        <v>0.6527204753933006</v>
+      </c>
+      <c r="K21">
+        <v>0.2863274522064885</v>
+      </c>
+      <c r="L21">
+        <v>0.6527204753933006</v>
+      </c>
+      <c r="M21">
+        <v>0.403041750139326</v>
+      </c>
+      <c r="N21">
+        <v>0.403041750139326</v>
+      </c>
+      <c r="O21">
+        <v>0.8152454551253377</v>
+      </c>
+      <c r="P21">
+        <v>0.3641369841617135</v>
+      </c>
+      <c r="Q21">
+        <v>0.3641369841617135</v>
+      </c>
+      <c r="R21">
+        <v>0.3446846011729073</v>
+      </c>
+      <c r="S21">
+        <v>0.3446846011729073</v>
+      </c>
+      <c r="T21">
+        <v>0.6114039899369986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.026606045801828</v>
+      </c>
+      <c r="D22">
+        <v>0.281633614831417</v>
+      </c>
+      <c r="E22">
+        <v>1.149097879653314</v>
+      </c>
+      <c r="F22">
+        <v>1.431500214945061</v>
+      </c>
+      <c r="G22">
+        <v>1.431500214945061</v>
+      </c>
+      <c r="H22">
+        <v>3.714159919474402</v>
+      </c>
+      <c r="I22">
+        <v>3.714159919474402</v>
+      </c>
+      <c r="J22">
+        <v>0.9205660056265996</v>
+      </c>
+      <c r="K22">
+        <v>1.431500214945061</v>
+      </c>
+      <c r="L22">
+        <v>0.9205660056265996</v>
+      </c>
+      <c r="M22">
+        <v>2.317362962550501</v>
+      </c>
+      <c r="N22">
+        <v>2.317362962550501</v>
+      </c>
+      <c r="O22">
+        <v>1.927941268251438</v>
+      </c>
+      <c r="P22">
+        <v>2.022075380015354</v>
+      </c>
+      <c r="Q22">
+        <v>2.022075380015354</v>
+      </c>
+      <c r="R22">
+        <v>1.874431588747781</v>
+      </c>
+      <c r="S22">
+        <v>1.874431588747781</v>
+      </c>
+      <c r="T22">
+        <v>1.420593946722104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9381371703097399</v>
+      </c>
+      <c r="D23">
+        <v>-0.0002100385357524366</v>
+      </c>
+      <c r="E23">
+        <v>0.4354435678309616</v>
+      </c>
+      <c r="F23">
+        <v>1.241685068854794</v>
+      </c>
+      <c r="G23">
+        <v>1.241685068854794</v>
+      </c>
+      <c r="H23">
+        <v>0.449016127050007</v>
+      </c>
+      <c r="I23">
+        <v>0.449016127050007</v>
+      </c>
+      <c r="J23">
+        <v>0.1070690239220181</v>
+      </c>
+      <c r="K23">
+        <v>1.241685068854794</v>
+      </c>
+      <c r="L23">
+        <v>0.1070690239220181</v>
+      </c>
+      <c r="M23">
+        <v>0.2780425754860125</v>
+      </c>
+      <c r="N23">
+        <v>0.2780425754860125</v>
+      </c>
+      <c r="O23">
+        <v>0.3305095729343289</v>
+      </c>
+      <c r="P23">
+        <v>0.5992567399422731</v>
+      </c>
+      <c r="Q23">
+        <v>0.5992567399422731</v>
+      </c>
+      <c r="R23">
+        <v>0.7598638221704035</v>
+      </c>
+      <c r="S23">
+        <v>0.7598638221704035</v>
+      </c>
+      <c r="T23">
+        <v>0.5285234865719614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9547815606178326</v>
+      </c>
+      <c r="D24">
+        <v>0.7306637664362051</v>
+      </c>
+      <c r="E24">
+        <v>1.407610290818055</v>
+      </c>
+      <c r="F24">
+        <v>0.9651220927888982</v>
+      </c>
+      <c r="G24">
+        <v>0.9651220927888982</v>
+      </c>
+      <c r="H24">
+        <v>1.297638248826563</v>
+      </c>
+      <c r="I24">
+        <v>1.297638248826563</v>
+      </c>
+      <c r="J24">
+        <v>1.815688649196343</v>
+      </c>
+      <c r="K24">
+        <v>0.9651220927888982</v>
+      </c>
+      <c r="L24">
+        <v>1.815688649196343</v>
+      </c>
+      <c r="M24">
+        <v>1.556663449011453</v>
+      </c>
+      <c r="N24">
+        <v>1.556663449011453</v>
+      </c>
+      <c r="O24">
+        <v>1.506979062946987</v>
+      </c>
+      <c r="P24">
+        <v>1.359482996937268</v>
+      </c>
+      <c r="Q24">
+        <v>1.359482996937268</v>
+      </c>
+      <c r="R24">
+        <v>1.260892770900176</v>
+      </c>
+      <c r="S24">
+        <v>1.260892770900176</v>
+      </c>
+      <c r="T24">
+        <v>1.195250768113983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.597200901834429</v>
+      </c>
+      <c r="D25">
+        <v>0.006139081893437154</v>
+      </c>
+      <c r="E25">
+        <v>0.8217420801851368</v>
+      </c>
+      <c r="F25">
+        <v>1.045299027449554</v>
+      </c>
+      <c r="G25">
+        <v>1.045299027449554</v>
+      </c>
+      <c r="H25">
+        <v>0.0655197973655875</v>
+      </c>
+      <c r="I25">
+        <v>0.0655197973655875</v>
+      </c>
+      <c r="J25">
+        <v>0.9771054646591478</v>
+      </c>
+      <c r="K25">
+        <v>1.045299027449554</v>
+      </c>
+      <c r="L25">
+        <v>0.9771054646591478</v>
+      </c>
+      <c r="M25">
+        <v>0.5213126310123677</v>
+      </c>
+      <c r="N25">
+        <v>0.5213126310123677</v>
+      </c>
+      <c r="O25">
+        <v>0.621455780736624</v>
+      </c>
+      <c r="P25">
+        <v>0.6959747631580965</v>
+      </c>
+      <c r="Q25">
+        <v>0.6959747631580965</v>
+      </c>
+      <c r="R25">
+        <v>0.7833058292309609</v>
+      </c>
+      <c r="S25">
+        <v>0.7833058292309609</v>
+      </c>
+      <c r="T25">
+        <v>0.7521677255645488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.621735854651463</v>
+      </c>
+      <c r="D26">
+        <v>2.00063521905053</v>
+      </c>
+      <c r="E26">
+        <v>1.181352793780138</v>
+      </c>
+      <c r="F26">
+        <v>0.8144334458427588</v>
+      </c>
+      <c r="G26">
+        <v>0.8144334458427588</v>
+      </c>
+      <c r="H26">
+        <v>1.966670181363898</v>
+      </c>
+      <c r="I26">
+        <v>1.966670181363898</v>
+      </c>
+      <c r="J26">
+        <v>1.03781705418751</v>
+      </c>
+      <c r="K26">
+        <v>0.8144334458427588</v>
+      </c>
+      <c r="L26">
+        <v>1.03781705418751</v>
+      </c>
+      <c r="M26">
+        <v>1.502243617775704</v>
+      </c>
+      <c r="N26">
+        <v>1.502243617775704</v>
+      </c>
+      <c r="O26">
+        <v>1.395280009777182</v>
+      </c>
+      <c r="P26">
+        <v>1.272973560464723</v>
+      </c>
+      <c r="Q26">
+        <v>1.272973560464722</v>
+      </c>
+      <c r="R26">
+        <v>1.158338531809231</v>
+      </c>
+      <c r="S26">
+        <v>1.158338531809231</v>
+      </c>
+      <c r="T26">
+        <v>1.27044075814605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.300184610761788</v>
+      </c>
+      <c r="D27">
+        <v>2.337695674734031</v>
+      </c>
+      <c r="E27">
+        <v>1.036497648914765</v>
+      </c>
+      <c r="F27">
+        <v>2.03652188109911</v>
+      </c>
+      <c r="G27">
+        <v>2.03652188109911</v>
+      </c>
+      <c r="H27">
+        <v>0.2854407316569693</v>
+      </c>
+      <c r="I27">
+        <v>0.2854407316569693</v>
+      </c>
+      <c r="J27">
+        <v>0.9700933121342539</v>
+      </c>
+      <c r="K27">
+        <v>2.03652188109911</v>
+      </c>
+      <c r="L27">
+        <v>0.9700933121342539</v>
+      </c>
+      <c r="M27">
+        <v>0.6277670218956115</v>
+      </c>
+      <c r="N27">
+        <v>0.6277670218956115</v>
+      </c>
+      <c r="O27">
+        <v>0.7640105642353294</v>
+      </c>
+      <c r="P27">
+        <v>1.097351974963444</v>
+      </c>
+      <c r="Q27">
+        <v>1.097351974963444</v>
+      </c>
+      <c r="R27">
+        <v>1.332144451497361</v>
+      </c>
+      <c r="S27">
+        <v>1.332144451497361</v>
+      </c>
+      <c r="T27">
+        <v>1.161072309883486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.3873090026945535</v>
+      </c>
+      <c r="D28">
+        <v>2.30159010931252</v>
+      </c>
+      <c r="E28">
+        <v>0.1447832842295467</v>
+      </c>
+      <c r="F28">
+        <v>2.135277101515722</v>
+      </c>
+      <c r="G28">
+        <v>2.135277101515722</v>
+      </c>
+      <c r="H28">
+        <v>2.633514560470958</v>
+      </c>
+      <c r="I28">
+        <v>2.633514560470958</v>
+      </c>
+      <c r="J28">
+        <v>0.5518529385725746</v>
+      </c>
+      <c r="K28">
+        <v>2.135277101515722</v>
+      </c>
+      <c r="L28">
+        <v>0.5518529385725746</v>
+      </c>
+      <c r="M28">
+        <v>1.592683749521766</v>
+      </c>
+      <c r="N28">
+        <v>1.592683749521766</v>
+      </c>
+      <c r="O28">
+        <v>1.110050261091027</v>
+      </c>
+      <c r="P28">
+        <v>1.773548200186418</v>
+      </c>
+      <c r="Q28">
+        <v>1.773548200186418</v>
+      </c>
+      <c r="R28">
+        <v>1.863980425518744</v>
+      </c>
+      <c r="S28">
+        <v>1.863980425518744</v>
+      </c>
+      <c r="T28">
+        <v>1.359054499465979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.1408799344173713</v>
+      </c>
+      <c r="D29">
+        <v>0.0009645198413832622</v>
+      </c>
+      <c r="E29">
+        <v>0.2443380939175648</v>
+      </c>
+      <c r="F29">
+        <v>4.09195361503739</v>
+      </c>
+      <c r="G29">
+        <v>4.09195361503739</v>
+      </c>
+      <c r="H29">
+        <v>-0.001763376872841907</v>
+      </c>
+      <c r="I29">
+        <v>-0.001763376872841907</v>
+      </c>
+      <c r="J29">
+        <v>1.234016644230707</v>
+      </c>
+      <c r="K29">
+        <v>4.09195361503739</v>
+      </c>
+      <c r="L29">
+        <v>1.234016644230707</v>
+      </c>
+      <c r="M29">
+        <v>0.6161266336789324</v>
+      </c>
+      <c r="N29">
+        <v>0.6161266336789324</v>
+      </c>
+      <c r="O29">
+        <v>0.4921971204251432</v>
+      </c>
+      <c r="P29">
+        <v>1.774735627465085</v>
+      </c>
+      <c r="Q29">
+        <v>1.774735627465085</v>
+      </c>
+      <c r="R29">
+        <v>2.354040124358161</v>
+      </c>
+      <c r="S29">
+        <v>2.354040124358161</v>
+      </c>
+      <c r="T29">
+        <v>0.9517315717619289</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9612241648469891</v>
+        <v>0.9695264157487977</v>
       </c>
       <c r="D4">
-        <v>0.9029230159405705</v>
+        <v>2.340520323725387</v>
       </c>
       <c r="E4">
-        <v>0.8830945102864443</v>
+        <v>0.8132570485170263</v>
       </c>
       <c r="F4">
-        <v>1.893294691621805</v>
+        <v>0.8991765622141452</v>
       </c>
       <c r="G4">
-        <v>1.893294691621805</v>
+        <v>0.8991765622141452</v>
       </c>
       <c r="H4">
-        <v>0.8059724728285267</v>
+        <v>0.7838669524610974</v>
       </c>
       <c r="I4">
-        <v>0.8059724728285267</v>
+        <v>0.7838669524610974</v>
       </c>
       <c r="J4">
-        <v>0.9016941895756073</v>
+        <v>1.017299194204401</v>
       </c>
       <c r="K4">
-        <v>1.893294691621805</v>
+        <v>0.8991765622141452</v>
       </c>
       <c r="L4">
-        <v>0.9016941895756073</v>
+        <v>1.017299194204401</v>
       </c>
       <c r="M4">
-        <v>0.8538333312020669</v>
+        <v>0.9005830733327489</v>
       </c>
       <c r="N4">
-        <v>0.8538333312020669</v>
+        <v>0.9005830733327489</v>
       </c>
       <c r="O4">
-        <v>0.8635870575635259</v>
+        <v>0.8714743983941746</v>
       </c>
       <c r="P4">
-        <v>1.200320451341979</v>
+        <v>0.9001142362932143</v>
       </c>
       <c r="Q4">
-        <v>1.20032045134198</v>
+        <v>0.9001142362932143</v>
       </c>
       <c r="R4">
-        <v>1.373564011411936</v>
+        <v>0.8998798177734471</v>
       </c>
       <c r="S4">
-        <v>1.373564011411936</v>
+        <v>0.8998798177734471</v>
       </c>
       <c r="T4">
-        <v>1.05803384084999</v>
+        <v>1.137274416145142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9560813193559221</v>
+        <v>0.1400439674751711</v>
       </c>
       <c r="D5">
-        <v>2.710761512148929</v>
+        <v>4.594734806660918</v>
       </c>
       <c r="E5">
-        <v>0.7615173651328766</v>
+        <v>0.0354867531263421</v>
       </c>
       <c r="F5">
-        <v>0.9402418200737852</v>
+        <v>1.880932696052732</v>
       </c>
       <c r="G5">
-        <v>0.9402418200737852</v>
+        <v>1.880932696052732</v>
       </c>
       <c r="H5">
-        <v>0.7802433337014134</v>
+        <v>3.770219205583233</v>
       </c>
       <c r="I5">
-        <v>0.7802433337014134</v>
+        <v>3.770219205583233</v>
       </c>
       <c r="J5">
-        <v>1.024556814739</v>
+        <v>1.909539214169965</v>
       </c>
       <c r="K5">
-        <v>0.9402418200737852</v>
+        <v>1.880932696052732</v>
       </c>
       <c r="L5">
-        <v>1.024556814739</v>
+        <v>1.909539214169965</v>
       </c>
       <c r="M5">
-        <v>0.9024000742202067</v>
+        <v>2.839879209876599</v>
       </c>
       <c r="N5">
-        <v>0.9024000742202067</v>
+        <v>2.839879209876599</v>
       </c>
       <c r="O5">
-        <v>0.8554391711910968</v>
+        <v>1.90508172429318</v>
       </c>
       <c r="P5">
-        <v>0.9150139895047329</v>
+        <v>2.52023037193531</v>
       </c>
       <c r="Q5">
-        <v>0.9150139895047329</v>
+        <v>2.52023037193531</v>
       </c>
       <c r="R5">
-        <v>0.921320947146996</v>
+        <v>2.360405952964665</v>
       </c>
       <c r="S5">
-        <v>0.921320947146996</v>
+        <v>2.360405952964665</v>
       </c>
       <c r="T5">
-        <v>1.195567027525321</v>
+        <v>2.055159440511393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4850310305477711</v>
+        <v>0.9612241648469891</v>
       </c>
       <c r="D6">
-        <v>10.22904709024263</v>
+        <v>0.9029230159405705</v>
       </c>
       <c r="E6">
-        <v>0.4100427057705109</v>
+        <v>0.8830945102864443</v>
       </c>
       <c r="F6">
-        <v>0.4485200879954609</v>
+        <v>1.893294691621805</v>
       </c>
       <c r="G6">
-        <v>0.4485200879954609</v>
+        <v>1.893294691621805</v>
       </c>
       <c r="H6">
-        <v>0.3910525351619241</v>
+        <v>0.8059724728285267</v>
       </c>
       <c r="I6">
-        <v>0.3910525351619241</v>
+        <v>0.8059724728285267</v>
       </c>
       <c r="J6">
-        <v>0.5227849123259108</v>
+        <v>0.9016941895756073</v>
       </c>
       <c r="K6">
-        <v>0.4485200879954609</v>
+        <v>1.893294691621805</v>
       </c>
       <c r="L6">
-        <v>0.5227849123259108</v>
+        <v>0.9016941895756073</v>
       </c>
       <c r="M6">
-        <v>0.4569187237439175</v>
+        <v>0.8538333312020669</v>
       </c>
       <c r="N6">
-        <v>0.4569187237439175</v>
+        <v>0.8538333312020669</v>
       </c>
       <c r="O6">
-        <v>0.4412933844194487</v>
+        <v>0.8635870575635259</v>
       </c>
       <c r="P6">
-        <v>0.4541191784944319</v>
+        <v>1.200320451341979</v>
       </c>
       <c r="Q6">
-        <v>0.4541191784944319</v>
+        <v>1.20032045134198</v>
       </c>
       <c r="R6">
-        <v>0.4527194058696892</v>
+        <v>1.373564011411936</v>
       </c>
       <c r="S6">
-        <v>0.4527194058696892</v>
+        <v>1.373564011411936</v>
       </c>
       <c r="T6">
-        <v>2.081079727007369</v>
+        <v>1.05803384084999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.030913943668713</v>
+        <v>0.9560813193559221</v>
       </c>
       <c r="D7">
-        <v>0.9649990771338429</v>
+        <v>2.710761512148929</v>
       </c>
       <c r="E7">
-        <v>0.9524546815841383</v>
+        <v>0.7615173651328766</v>
       </c>
       <c r="F7">
-        <v>1.112981457615426</v>
+        <v>0.9402418200737852</v>
       </c>
       <c r="G7">
-        <v>1.112981457615426</v>
+        <v>0.9402418200737852</v>
       </c>
       <c r="H7">
-        <v>0.9602896089421282</v>
+        <v>0.7802433337014134</v>
       </c>
       <c r="I7">
-        <v>0.9602896089421282</v>
+        <v>0.7802433337014134</v>
       </c>
       <c r="J7">
-        <v>1.040527621594435</v>
+        <v>1.024556814739</v>
       </c>
       <c r="K7">
-        <v>1.112981457615426</v>
+        <v>0.9402418200737852</v>
       </c>
       <c r="L7">
-        <v>1.040527621594435</v>
+        <v>1.024556814739</v>
       </c>
       <c r="M7">
-        <v>1.000408615268282</v>
+        <v>0.9024000742202067</v>
       </c>
       <c r="N7">
-        <v>1.000408615268282</v>
+        <v>0.9024000742202067</v>
       </c>
       <c r="O7">
-        <v>0.9844239707069007</v>
+        <v>0.8554391711910968</v>
       </c>
       <c r="P7">
-        <v>1.037932896050663</v>
+        <v>0.9150139895047329</v>
       </c>
       <c r="Q7">
-        <v>1.037932896050663</v>
+        <v>0.9150139895047329</v>
       </c>
       <c r="R7">
-        <v>1.056695036441854</v>
+        <v>0.921320947146996</v>
       </c>
       <c r="S7">
-        <v>1.056695036441854</v>
+        <v>0.921320947146996</v>
       </c>
       <c r="T7">
-        <v>1.010361065089781</v>
+        <v>1.195567027525321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.004656710321109</v>
+        <v>0.4850310305477711</v>
       </c>
       <c r="D8">
-        <v>1.026983217820353</v>
+        <v>10.22904709024263</v>
       </c>
       <c r="E8">
-        <v>0.9946282149027493</v>
+        <v>0.4100427057705109</v>
       </c>
       <c r="F8">
-        <v>0.9336314740532857</v>
+        <v>0.4485200879954609</v>
       </c>
       <c r="G8">
-        <v>0.9336314740532857</v>
+        <v>0.4485200879954609</v>
       </c>
       <c r="H8">
-        <v>1.015151243439434</v>
+        <v>0.3910525351619241</v>
       </c>
       <c r="I8">
-        <v>1.015151243439434</v>
+        <v>0.3910525351619241</v>
       </c>
       <c r="J8">
-        <v>1.019046313998567</v>
+        <v>0.5227849123259108</v>
       </c>
       <c r="K8">
-        <v>0.9336314740532857</v>
+        <v>0.4485200879954609</v>
       </c>
       <c r="L8">
-        <v>1.019046313998567</v>
+        <v>0.5227849123259108</v>
       </c>
       <c r="M8">
-        <v>1.017098778719001</v>
+        <v>0.4569187237439175</v>
       </c>
       <c r="N8">
-        <v>1.017098778719001</v>
+        <v>0.4569187237439175</v>
       </c>
       <c r="O8">
-        <v>1.00960859078025</v>
+        <v>0.4412933844194487</v>
       </c>
       <c r="P8">
-        <v>0.989276343830429</v>
+        <v>0.4541191784944319</v>
       </c>
       <c r="Q8">
-        <v>0.989276343830429</v>
+        <v>0.4541191784944319</v>
       </c>
       <c r="R8">
-        <v>0.9753651263861431</v>
+        <v>0.4527194058696892</v>
       </c>
       <c r="S8">
-        <v>0.9753651263861431</v>
+        <v>0.4527194058696892</v>
       </c>
       <c r="T8">
-        <v>0.9990161957559164</v>
+        <v>2.081079727007369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.059637210383201</v>
+        <v>1.030913943668713</v>
       </c>
       <c r="D9">
-        <v>0.9793850607206441</v>
+        <v>0.9649990771338429</v>
       </c>
       <c r="E9">
-        <v>0.9125013052238139</v>
+        <v>0.9524546815841383</v>
       </c>
       <c r="F9">
-        <v>1.211053358491132</v>
+        <v>1.112981457615426</v>
       </c>
       <c r="G9">
-        <v>1.211053358491132</v>
+        <v>1.112981457615426</v>
       </c>
       <c r="H9">
-        <v>0.9620574960323734</v>
+        <v>0.9602896089421282</v>
       </c>
       <c r="I9">
-        <v>0.9620574960323734</v>
+        <v>0.9602896089421282</v>
       </c>
       <c r="J9">
-        <v>1.084414578760547</v>
+        <v>1.040527621594435</v>
       </c>
       <c r="K9">
-        <v>1.211053358491132</v>
+        <v>1.112981457615426</v>
       </c>
       <c r="L9">
-        <v>1.084414578760547</v>
+        <v>1.040527621594435</v>
       </c>
       <c r="M9">
-        <v>1.02323603739646</v>
+        <v>1.000408615268282</v>
       </c>
       <c r="N9">
-        <v>1.02323603739646</v>
+        <v>1.000408615268282</v>
       </c>
       <c r="O9">
-        <v>0.9863244600055782</v>
+        <v>0.9844239707069007</v>
       </c>
       <c r="P9">
-        <v>1.085841811094684</v>
+        <v>1.037932896050663</v>
       </c>
       <c r="Q9">
-        <v>1.085841811094684</v>
+        <v>1.037932896050663</v>
       </c>
       <c r="R9">
-        <v>1.117144697943796</v>
+        <v>1.056695036441854</v>
       </c>
       <c r="S9">
-        <v>1.117144697943796</v>
+        <v>1.056695036441854</v>
       </c>
       <c r="T9">
-        <v>1.034841501601952</v>
+        <v>1.010361065089781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4748040310219519</v>
+        <v>1.004656710321109</v>
       </c>
       <c r="D10">
-        <v>10.43465459185916</v>
+        <v>1.026983217820353</v>
       </c>
       <c r="E10">
-        <v>0.3736796498403204</v>
+        <v>0.9946282149027493</v>
       </c>
       <c r="F10">
-        <v>0.4218276863005772</v>
+        <v>0.9336314740532857</v>
       </c>
       <c r="G10">
-        <v>0.4218276863005772</v>
+        <v>0.9336314740532857</v>
       </c>
       <c r="H10">
-        <v>0.4752581667704202</v>
+        <v>1.015151243439434</v>
       </c>
       <c r="I10">
-        <v>0.4752581667704202</v>
+        <v>1.015151243439434</v>
       </c>
       <c r="J10">
-        <v>0.4851485990997925</v>
+        <v>1.019046313998567</v>
       </c>
       <c r="K10">
-        <v>0.4218276863005772</v>
+        <v>0.9336314740532857</v>
       </c>
       <c r="L10">
-        <v>0.4851485990997925</v>
+        <v>1.019046313998567</v>
       </c>
       <c r="M10">
-        <v>0.4802033829351063</v>
+        <v>1.017098778719001</v>
       </c>
       <c r="N10">
-        <v>0.4802033829351063</v>
+        <v>1.017098778719001</v>
       </c>
       <c r="O10">
-        <v>0.4446954719035111</v>
+        <v>1.00960859078025</v>
       </c>
       <c r="P10">
-        <v>0.4607448173902633</v>
+        <v>0.989276343830429</v>
       </c>
       <c r="Q10">
-        <v>0.4607448173902632</v>
+        <v>0.989276343830429</v>
       </c>
       <c r="R10">
-        <v>0.4510155346178417</v>
+        <v>0.9753651263861431</v>
       </c>
       <c r="S10">
-        <v>0.4510155346178417</v>
+        <v>0.9753651263861431</v>
       </c>
       <c r="T10">
-        <v>2.110895454148703</v>
+        <v>0.9990161957559164</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9740775093998407</v>
+        <v>1.059637210383201</v>
       </c>
       <c r="D11">
-        <v>1.043316720709057</v>
+        <v>0.9793850607206441</v>
       </c>
       <c r="E11">
-        <v>0.8301740891275352</v>
+        <v>0.9125013052238139</v>
       </c>
       <c r="F11">
-        <v>1.894224810528534</v>
+        <v>1.211053358491132</v>
       </c>
       <c r="G11">
-        <v>1.894224810528534</v>
+        <v>1.211053358491132</v>
       </c>
       <c r="H11">
-        <v>0.8473642784177287</v>
+        <v>0.9620574960323734</v>
       </c>
       <c r="I11">
-        <v>0.8473642784177287</v>
+        <v>0.9620574960323734</v>
       </c>
       <c r="J11">
-        <v>0.8956117647294476</v>
+        <v>1.084414578760547</v>
       </c>
       <c r="K11">
-        <v>1.894224810528534</v>
+        <v>1.211053358491132</v>
       </c>
       <c r="L11">
-        <v>0.8956117647294476</v>
+        <v>1.084414578760547</v>
       </c>
       <c r="M11">
-        <v>0.8714880215735881</v>
+        <v>1.02323603739646</v>
       </c>
       <c r="N11">
-        <v>0.8714880215735881</v>
+        <v>1.02323603739646</v>
       </c>
       <c r="O11">
-        <v>0.8577167107582371</v>
+        <v>0.9863244600055782</v>
       </c>
       <c r="P11">
-        <v>1.21240028455857</v>
+        <v>1.085841811094684</v>
       </c>
       <c r="Q11">
-        <v>1.21240028455857</v>
+        <v>1.085841811094684</v>
       </c>
       <c r="R11">
-        <v>1.382856416051061</v>
+        <v>1.117144697943796</v>
       </c>
       <c r="S11">
-        <v>1.382856416051061</v>
+        <v>1.117144697943796</v>
       </c>
       <c r="T11">
-        <v>1.080794862152024</v>
+        <v>1.034841501601952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8867075334998528</v>
+        <v>0.4748040310219519</v>
       </c>
       <c r="D12">
-        <v>3.300492728445843</v>
+        <v>10.43465459185916</v>
       </c>
       <c r="E12">
-        <v>0.7119019195329332</v>
+        <v>0.3736796498403204</v>
       </c>
       <c r="F12">
-        <v>0.8007212221299759</v>
+        <v>0.4218276863005772</v>
       </c>
       <c r="G12">
-        <v>0.8007212221299759</v>
+        <v>0.4218276863005772</v>
       </c>
       <c r="H12">
-        <v>1.015659797053798</v>
+        <v>0.4752581667704202</v>
       </c>
       <c r="I12">
-        <v>1.015659797053798</v>
+        <v>0.4752581667704202</v>
       </c>
       <c r="J12">
-        <v>0.9591157225154812</v>
+        <v>0.4851485990997925</v>
       </c>
       <c r="K12">
-        <v>0.8007212221299759</v>
+        <v>0.4218276863005772</v>
       </c>
       <c r="L12">
-        <v>0.9591157225154812</v>
+        <v>0.4851485990997925</v>
       </c>
       <c r="M12">
-        <v>0.9873877597846394</v>
+        <v>0.4802033829351063</v>
       </c>
       <c r="N12">
-        <v>0.9873877597846394</v>
+        <v>0.4802033829351063</v>
       </c>
       <c r="O12">
-        <v>0.895559146367404</v>
+        <v>0.4446954719035111</v>
       </c>
       <c r="P12">
-        <v>0.9251655805664183</v>
+        <v>0.4607448173902633</v>
       </c>
       <c r="Q12">
-        <v>0.9251655805664182</v>
+        <v>0.4607448173902632</v>
       </c>
       <c r="R12">
-        <v>0.8940544909573076</v>
+        <v>0.4510155346178417</v>
       </c>
       <c r="S12">
-        <v>0.8940544909573076</v>
+        <v>0.4510155346178417</v>
       </c>
       <c r="T12">
-        <v>1.279099820529647</v>
+        <v>2.110895454148703</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9543379670147614</v>
+        <v>0.9740775093998407</v>
       </c>
       <c r="D13">
-        <v>0.5868027001124585</v>
+        <v>1.043316720709057</v>
       </c>
       <c r="E13">
-        <v>1.057929666695446</v>
+        <v>0.8301740891275352</v>
       </c>
       <c r="F13">
-        <v>1.00296767554604</v>
+        <v>1.894224810528534</v>
       </c>
       <c r="G13">
-        <v>1.00296767554604</v>
+        <v>1.894224810528534</v>
       </c>
       <c r="H13">
-        <v>1.520000472042016</v>
+        <v>0.8473642784177287</v>
       </c>
       <c r="I13">
-        <v>1.520000472042016</v>
+        <v>0.8473642784177287</v>
       </c>
       <c r="J13">
-        <v>0.8623465817169049</v>
+        <v>0.8956117647294476</v>
       </c>
       <c r="K13">
-        <v>1.00296767554604</v>
+        <v>1.894224810528534</v>
       </c>
       <c r="L13">
-        <v>0.8623465817169049</v>
+        <v>0.8956117647294476</v>
       </c>
       <c r="M13">
-        <v>1.19117352687946</v>
+        <v>0.8714880215735881</v>
       </c>
       <c r="N13">
-        <v>1.19117352687946</v>
+        <v>0.8714880215735881</v>
       </c>
       <c r="O13">
-        <v>1.146758906818122</v>
+        <v>0.8577167107582371</v>
       </c>
       <c r="P13">
-        <v>1.128438243101654</v>
+        <v>1.21240028455857</v>
       </c>
       <c r="Q13">
-        <v>1.128438243101654</v>
+        <v>1.21240028455857</v>
       </c>
       <c r="R13">
-        <v>1.09707060121275</v>
+        <v>1.382856416051061</v>
       </c>
       <c r="S13">
-        <v>1.09707060121275</v>
+        <v>1.382856416051061</v>
       </c>
       <c r="T13">
-        <v>0.997397510521271</v>
+        <v>1.080794862152024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.004888891200000005</v>
+        <v>0.8867075334998528</v>
       </c>
       <c r="D14">
-        <v>18.13430799999999</v>
+        <v>3.300492728445843</v>
       </c>
       <c r="E14">
-        <v>-5.365078800000002E-05</v>
+        <v>0.7119019195329332</v>
       </c>
       <c r="F14">
-        <v>0.0007142271400000009</v>
+        <v>0.8007212221299759</v>
       </c>
       <c r="G14">
-        <v>0.0007142271400000009</v>
+        <v>0.8007212221299759</v>
       </c>
       <c r="H14">
-        <v>0.002110478999999999</v>
+        <v>1.015659797053798</v>
       </c>
       <c r="I14">
-        <v>0.002110478999999999</v>
+        <v>1.015659797053798</v>
       </c>
       <c r="J14">
-        <v>0.01091472599999999</v>
+        <v>0.9591157225154812</v>
       </c>
       <c r="K14">
-        <v>0.0007142271400000009</v>
+        <v>0.8007212221299759</v>
       </c>
       <c r="L14">
-        <v>0.01091472599999999</v>
+        <v>0.9591157225154812</v>
       </c>
       <c r="M14">
-        <v>0.006512602499999995</v>
+        <v>0.9873877597846394</v>
       </c>
       <c r="N14">
-        <v>0.006512602499999995</v>
+        <v>0.9873877597846394</v>
       </c>
       <c r="O14">
-        <v>0.004323851403999997</v>
+        <v>0.895559146367404</v>
       </c>
       <c r="P14">
-        <v>0.00457981071333333</v>
+        <v>0.9251655805664183</v>
       </c>
       <c r="Q14">
-        <v>0.00457981071333333</v>
+        <v>0.9251655805664182</v>
       </c>
       <c r="R14">
-        <v>0.003613414819999998</v>
+        <v>0.8940544909573076</v>
       </c>
       <c r="S14">
-        <v>0.003613414819999998</v>
+        <v>0.8940544909573076</v>
       </c>
       <c r="T14">
-        <v>3.025480445425332</v>
+        <v>1.279099820529647</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.22911664</v>
+        <v>0.9543379670147614</v>
       </c>
       <c r="D15">
-        <v>0.007470925200000001</v>
+        <v>0.5868027001124585</v>
       </c>
       <c r="E15">
-        <v>-0.0044241377</v>
+        <v>1.057929666695446</v>
       </c>
       <c r="F15">
-        <v>0.0046412864</v>
+        <v>1.00296767554604</v>
       </c>
       <c r="G15">
-        <v>0.0046412864</v>
+        <v>1.00296767554604</v>
       </c>
       <c r="H15">
-        <v>-0.0024770734</v>
+        <v>1.520000472042016</v>
       </c>
       <c r="I15">
-        <v>-0.0024770734</v>
+        <v>1.520000472042016</v>
       </c>
       <c r="J15">
-        <v>6.0459081</v>
+        <v>0.8623465817169049</v>
       </c>
       <c r="K15">
-        <v>0.0046412864</v>
+        <v>1.00296767554604</v>
       </c>
       <c r="L15">
-        <v>6.0459081</v>
+        <v>0.8623465817169049</v>
       </c>
       <c r="M15">
-        <v>3.0217155133</v>
+        <v>1.19117352687946</v>
       </c>
       <c r="N15">
-        <v>3.0217155133</v>
+        <v>1.19117352687946</v>
       </c>
       <c r="O15">
-        <v>2.0130022963</v>
+        <v>1.146758906818122</v>
       </c>
       <c r="P15">
-        <v>2.016024104333333</v>
+        <v>1.128438243101654</v>
       </c>
       <c r="Q15">
-        <v>2.016024104333333</v>
+        <v>1.128438243101654</v>
       </c>
       <c r="R15">
-        <v>1.51317839985</v>
+        <v>1.09707060121275</v>
       </c>
       <c r="S15">
-        <v>1.51317839985</v>
+        <v>1.09707060121275</v>
       </c>
       <c r="T15">
-        <v>1.04670595675</v>
+        <v>0.997397510521271</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0037430372</v>
+        <v>0.004888891200000005</v>
       </c>
       <c r="D16">
-        <v>-0.0027921709</v>
+        <v>18.13430799999999</v>
       </c>
       <c r="E16">
-        <v>0.0025420957</v>
+        <v>-5.365078800000002E-05</v>
       </c>
       <c r="F16">
-        <v>30.381976</v>
+        <v>0.0007142271400000009</v>
       </c>
       <c r="G16">
-        <v>30.381976</v>
+        <v>0.0007142271400000009</v>
       </c>
       <c r="H16">
-        <v>0.0030969418</v>
+        <v>0.002110478999999999</v>
       </c>
       <c r="I16">
-        <v>0.0030969418</v>
+        <v>0.002110478999999999</v>
       </c>
       <c r="J16">
-        <v>-0.0012295708</v>
+        <v>0.01091472599999999</v>
       </c>
       <c r="K16">
-        <v>30.381976</v>
+        <v>0.0007142271400000009</v>
       </c>
       <c r="L16">
-        <v>-0.0012295708</v>
+        <v>0.01091472599999999</v>
       </c>
       <c r="M16">
-        <v>0.0009336855</v>
+        <v>0.006512602499999995</v>
       </c>
       <c r="N16">
-        <v>0.0009336855</v>
+        <v>0.006512602499999995</v>
       </c>
       <c r="O16">
-        <v>0.001469822233333333</v>
+        <v>0.004323851403999997</v>
       </c>
       <c r="P16">
-        <v>10.12794779033333</v>
+        <v>0.00457981071333333</v>
       </c>
       <c r="Q16">
-        <v>10.12794779033333</v>
+        <v>0.00457981071333333</v>
       </c>
       <c r="R16">
-        <v>15.19145484275</v>
+        <v>0.003613414819999998</v>
       </c>
       <c r="S16">
-        <v>15.19145484275</v>
+        <v>0.003613414819999998</v>
       </c>
       <c r="T16">
-        <v>5.0645560555</v>
+        <v>3.025480445425332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.017841842</v>
+        <v>0.22911664</v>
       </c>
       <c r="D17">
-        <v>0.0046747712</v>
+        <v>0.007470925200000001</v>
       </c>
       <c r="E17">
-        <v>0.056374908</v>
+        <v>-0.0044241377</v>
       </c>
       <c r="F17">
-        <v>-0.0018170611</v>
+        <v>0.0046412864</v>
       </c>
       <c r="G17">
-        <v>-0.0018170611</v>
+        <v>0.0046412864</v>
       </c>
       <c r="H17">
-        <v>-0.0021070499</v>
+        <v>-0.0024770734</v>
       </c>
       <c r="I17">
-        <v>-0.0021070499</v>
+        <v>-0.0024770734</v>
       </c>
       <c r="J17">
-        <v>0.19156021</v>
+        <v>6.0459081</v>
       </c>
       <c r="K17">
-        <v>-0.0018170611</v>
+        <v>0.0046412864</v>
       </c>
       <c r="L17">
-        <v>0.19156021</v>
+        <v>6.0459081</v>
       </c>
       <c r="M17">
-        <v>0.09472658005000002</v>
+        <v>3.0217155133</v>
       </c>
       <c r="N17">
-        <v>0.09472658005000002</v>
+        <v>3.0217155133</v>
       </c>
       <c r="O17">
-        <v>0.08194268936666668</v>
+        <v>2.0130022963</v>
       </c>
       <c r="P17">
-        <v>0.06254536633333335</v>
+        <v>2.016024104333333</v>
       </c>
       <c r="Q17">
-        <v>0.06254536633333334</v>
+        <v>2.016024104333333</v>
       </c>
       <c r="R17">
-        <v>0.04645475947500001</v>
+        <v>1.51317839985</v>
       </c>
       <c r="S17">
-        <v>0.04645475947500001</v>
+        <v>1.51317839985</v>
       </c>
       <c r="T17">
-        <v>0.04442127003333334</v>
+        <v>1.04670595675</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.776471780087671</v>
+        <v>0.0037430372</v>
       </c>
       <c r="D18">
-        <v>0.003581270516712328</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="E18">
-        <v>0.001805428616821918</v>
+        <v>0.0025420957</v>
       </c>
       <c r="F18">
-        <v>3.552230321353425</v>
+        <v>30.381976</v>
       </c>
       <c r="G18">
-        <v>3.552230321353425</v>
+        <v>30.381976</v>
       </c>
       <c r="H18">
-        <v>0.0006503385671232877</v>
+        <v>0.0030969418</v>
       </c>
       <c r="I18">
-        <v>0.0006503385671232877</v>
+        <v>0.0030969418</v>
       </c>
       <c r="J18">
-        <v>1.845554366688806</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="K18">
-        <v>3.552230321353425</v>
+        <v>30.381976</v>
       </c>
       <c r="L18">
-        <v>1.845554366688806</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M18">
-        <v>0.9231023526279647</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N18">
-        <v>0.9231023526279647</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O18">
-        <v>0.6160033779575838</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P18">
-        <v>1.799478342203118</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q18">
-        <v>1.799478342203118</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R18">
-        <v>2.237666336990695</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S18">
-        <v>2.237666336990695</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T18">
-        <v>1.196715584305093</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.536355164911579</v>
+        <v>0.017841842</v>
       </c>
       <c r="D19">
-        <v>1.49396238023621</v>
+        <v>0.0046747712</v>
       </c>
       <c r="E19">
-        <v>1.312768462654315</v>
+        <v>0.056374908</v>
       </c>
       <c r="F19">
-        <v>2.502644122532105</v>
+        <v>-0.0018170611</v>
       </c>
       <c r="G19">
-        <v>2.502644122532105</v>
+        <v>-0.0018170611</v>
       </c>
       <c r="H19">
-        <v>-0.0004963123000000003</v>
+        <v>-0.0021070499</v>
       </c>
       <c r="I19">
-        <v>-0.0004963123000000003</v>
+        <v>-0.0021070499</v>
       </c>
       <c r="J19">
-        <v>1.101893364113684</v>
+        <v>0.19156021</v>
       </c>
       <c r="K19">
-        <v>2.502644122532105</v>
+        <v>-0.0018170611</v>
       </c>
       <c r="L19">
-        <v>1.101893364113684</v>
+        <v>0.19156021</v>
       </c>
       <c r="M19">
-        <v>0.550698525906842</v>
+        <v>0.09472658005000002</v>
       </c>
       <c r="N19">
-        <v>0.550698525906842</v>
+        <v>0.09472658005000002</v>
       </c>
       <c r="O19">
-        <v>0.8047218381559998</v>
+        <v>0.08194268936666668</v>
       </c>
       <c r="P19">
-        <v>1.201347058115263</v>
+        <v>0.06254536633333335</v>
       </c>
       <c r="Q19">
-        <v>1.201347058115263</v>
+        <v>0.06254536633333334</v>
       </c>
       <c r="R19">
-        <v>1.526671324219474</v>
+        <v>0.04645475947500001</v>
       </c>
       <c r="S19">
-        <v>1.526671324219474</v>
+        <v>0.04645475947500001</v>
       </c>
       <c r="T19">
-        <v>1.157854530357982</v>
+        <v>0.04442127003333334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1330933833863158</v>
+        <v>1.776471780087671</v>
       </c>
       <c r="D20">
-        <v>5.586939591918419</v>
+        <v>0.003581270516712328</v>
       </c>
       <c r="E20">
-        <v>0.03191780924747369</v>
+        <v>0.001805428616821918</v>
       </c>
       <c r="F20">
-        <v>1.704637122014458</v>
+        <v>3.552230321353425</v>
       </c>
       <c r="G20">
-        <v>1.704637122014458</v>
+        <v>3.552230321353425</v>
       </c>
       <c r="H20">
-        <v>3.406929710674737</v>
+        <v>0.0006503385671232877</v>
       </c>
       <c r="I20">
-        <v>3.406929710674737</v>
+        <v>0.0006503385671232877</v>
       </c>
       <c r="J20">
-        <v>1.864659883761053</v>
+        <v>1.845554366688806</v>
       </c>
       <c r="K20">
-        <v>1.704637122014458</v>
+        <v>3.552230321353425</v>
       </c>
       <c r="L20">
-        <v>1.864659883761053</v>
+        <v>1.845554366688806</v>
       </c>
       <c r="M20">
-        <v>2.635794797217895</v>
+        <v>0.9231023526279647</v>
       </c>
       <c r="N20">
-        <v>2.635794797217895</v>
+        <v>0.9231023526279647</v>
       </c>
       <c r="O20">
-        <v>1.767835801227754</v>
+        <v>0.6160033779575838</v>
       </c>
       <c r="P20">
-        <v>2.325408905483416</v>
+        <v>1.799478342203118</v>
       </c>
       <c r="Q20">
-        <v>2.325408905483416</v>
+        <v>1.799478342203118</v>
       </c>
       <c r="R20">
-        <v>2.170215959616177</v>
+        <v>2.237666336990695</v>
       </c>
       <c r="S20">
-        <v>2.170215959616177</v>
+        <v>2.237666336990695</v>
       </c>
       <c r="T20">
-        <v>2.121362916833743</v>
+        <v>1.196715584305093</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9363853553797205</v>
+        <v>0.536355164911579</v>
       </c>
       <c r="D21">
-        <v>-2.52333402309061E-05</v>
+        <v>1.49396238023621</v>
       </c>
       <c r="E21">
-        <v>1.639652865097361</v>
+        <v>1.312768462654315</v>
       </c>
       <c r="F21">
-        <v>0.2863274522064885</v>
+        <v>2.502644122532105</v>
       </c>
       <c r="G21">
-        <v>0.2863274522064885</v>
+        <v>2.502644122532105</v>
       </c>
       <c r="H21">
-        <v>0.1533630248853514</v>
+        <v>-0.0004963123000000003</v>
       </c>
       <c r="I21">
-        <v>0.1533630248853514</v>
+        <v>-0.0004963123000000003</v>
       </c>
       <c r="J21">
-        <v>0.6527204753933006</v>
+        <v>1.101893364113684</v>
       </c>
       <c r="K21">
-        <v>0.2863274522064885</v>
+        <v>2.502644122532105</v>
       </c>
       <c r="L21">
-        <v>0.6527204753933006</v>
+        <v>1.101893364113684</v>
       </c>
       <c r="M21">
-        <v>0.403041750139326</v>
+        <v>0.550698525906842</v>
       </c>
       <c r="N21">
-        <v>0.403041750139326</v>
+        <v>0.550698525906842</v>
       </c>
       <c r="O21">
-        <v>0.8152454551253377</v>
+        <v>0.8047218381559998</v>
       </c>
       <c r="P21">
-        <v>0.3641369841617135</v>
+        <v>1.201347058115263</v>
       </c>
       <c r="Q21">
-        <v>0.3641369841617135</v>
+        <v>1.201347058115263</v>
       </c>
       <c r="R21">
-        <v>0.3446846011729073</v>
+        <v>1.526671324219474</v>
       </c>
       <c r="S21">
-        <v>0.3446846011729073</v>
+        <v>1.526671324219474</v>
       </c>
       <c r="T21">
-        <v>0.6114039899369986</v>
+        <v>1.157854530357982</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.026606045801828</v>
+        <v>0.1330933833863158</v>
       </c>
       <c r="D22">
-        <v>0.281633614831417</v>
+        <v>5.586939591918419</v>
       </c>
       <c r="E22">
-        <v>1.149097879653314</v>
+        <v>0.03191780924747369</v>
       </c>
       <c r="F22">
-        <v>1.431500214945061</v>
+        <v>1.704637122014458</v>
       </c>
       <c r="G22">
-        <v>1.431500214945061</v>
+        <v>1.704637122014458</v>
       </c>
       <c r="H22">
-        <v>3.714159919474402</v>
+        <v>3.406929710674737</v>
       </c>
       <c r="I22">
-        <v>3.714159919474402</v>
+        <v>3.406929710674737</v>
       </c>
       <c r="J22">
-        <v>0.9205660056265996</v>
+        <v>1.864659883761053</v>
       </c>
       <c r="K22">
-        <v>1.431500214945061</v>
+        <v>1.704637122014458</v>
       </c>
       <c r="L22">
-        <v>0.9205660056265996</v>
+        <v>1.864659883761053</v>
       </c>
       <c r="M22">
-        <v>2.317362962550501</v>
+        <v>2.635794797217895</v>
       </c>
       <c r="N22">
-        <v>2.317362962550501</v>
+        <v>2.635794797217895</v>
       </c>
       <c r="O22">
-        <v>1.927941268251438</v>
+        <v>1.767835801227754</v>
       </c>
       <c r="P22">
-        <v>2.022075380015354</v>
+        <v>2.325408905483416</v>
       </c>
       <c r="Q22">
-        <v>2.022075380015354</v>
+        <v>2.325408905483416</v>
       </c>
       <c r="R22">
-        <v>1.874431588747781</v>
+        <v>2.170215959616177</v>
       </c>
       <c r="S22">
-        <v>1.874431588747781</v>
+        <v>2.170215959616177</v>
       </c>
       <c r="T22">
-        <v>1.420593946722104</v>
+        <v>2.121362916833743</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9381371703097399</v>
+        <v>0.9363853553797205</v>
       </c>
       <c r="D23">
-        <v>-0.0002100385357524366</v>
+        <v>-2.52333402309061E-05</v>
       </c>
       <c r="E23">
-        <v>0.4354435678309616</v>
+        <v>1.639652865097361</v>
       </c>
       <c r="F23">
-        <v>1.241685068854794</v>
+        <v>0.2863274522064885</v>
       </c>
       <c r="G23">
-        <v>1.241685068854794</v>
+        <v>0.2863274522064885</v>
       </c>
       <c r="H23">
-        <v>0.449016127050007</v>
+        <v>0.1533630248853514</v>
       </c>
       <c r="I23">
-        <v>0.449016127050007</v>
+        <v>0.1533630248853514</v>
       </c>
       <c r="J23">
-        <v>0.1070690239220181</v>
+        <v>0.6527204753933006</v>
       </c>
       <c r="K23">
-        <v>1.241685068854794</v>
+        <v>0.2863274522064885</v>
       </c>
       <c r="L23">
-        <v>0.1070690239220181</v>
+        <v>0.6527204753933006</v>
       </c>
       <c r="M23">
-        <v>0.2780425754860125</v>
+        <v>0.403041750139326</v>
       </c>
       <c r="N23">
-        <v>0.2780425754860125</v>
+        <v>0.403041750139326</v>
       </c>
       <c r="O23">
-        <v>0.3305095729343289</v>
+        <v>0.8152454551253377</v>
       </c>
       <c r="P23">
-        <v>0.5992567399422731</v>
+        <v>0.3641369841617135</v>
       </c>
       <c r="Q23">
-        <v>0.5992567399422731</v>
+        <v>0.3641369841617135</v>
       </c>
       <c r="R23">
-        <v>0.7598638221704035</v>
+        <v>0.3446846011729073</v>
       </c>
       <c r="S23">
-        <v>0.7598638221704035</v>
+        <v>0.3446846011729073</v>
       </c>
       <c r="T23">
-        <v>0.5285234865719614</v>
+        <v>0.6114039899369986</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9547815606178326</v>
+        <v>1.026606045801828</v>
       </c>
       <c r="D24">
-        <v>0.7306637664362051</v>
+        <v>0.281633614831417</v>
       </c>
       <c r="E24">
-        <v>1.407610290818055</v>
+        <v>1.149097879653314</v>
       </c>
       <c r="F24">
-        <v>0.9651220927888982</v>
+        <v>1.431500214945061</v>
       </c>
       <c r="G24">
-        <v>0.9651220927888982</v>
+        <v>1.431500214945061</v>
       </c>
       <c r="H24">
-        <v>1.297638248826563</v>
+        <v>3.714159919474402</v>
       </c>
       <c r="I24">
-        <v>1.297638248826563</v>
+        <v>3.714159919474402</v>
       </c>
       <c r="J24">
-        <v>1.815688649196343</v>
+        <v>0.9205660056265996</v>
       </c>
       <c r="K24">
-        <v>0.9651220927888982</v>
+        <v>1.431500214945061</v>
       </c>
       <c r="L24">
-        <v>1.815688649196343</v>
+        <v>0.9205660056265996</v>
       </c>
       <c r="M24">
-        <v>1.556663449011453</v>
+        <v>2.317362962550501</v>
       </c>
       <c r="N24">
-        <v>1.556663449011453</v>
+        <v>2.317362962550501</v>
       </c>
       <c r="O24">
-        <v>1.506979062946987</v>
+        <v>1.927941268251438</v>
       </c>
       <c r="P24">
-        <v>1.359482996937268</v>
+        <v>2.022075380015354</v>
       </c>
       <c r="Q24">
-        <v>1.359482996937268</v>
+        <v>2.022075380015354</v>
       </c>
       <c r="R24">
-        <v>1.260892770900176</v>
+        <v>1.874431588747781</v>
       </c>
       <c r="S24">
-        <v>1.260892770900176</v>
+        <v>1.874431588747781</v>
       </c>
       <c r="T24">
-        <v>1.195250768113983</v>
+        <v>1.420593946722104</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.597200901834429</v>
+        <v>0.9381371703097399</v>
       </c>
       <c r="D25">
-        <v>0.006139081893437154</v>
+        <v>-0.0002100385357524366</v>
       </c>
       <c r="E25">
-        <v>0.8217420801851368</v>
+        <v>0.4354435678309616</v>
       </c>
       <c r="F25">
-        <v>1.045299027449554</v>
+        <v>1.241685068854794</v>
       </c>
       <c r="G25">
-        <v>1.045299027449554</v>
+        <v>1.241685068854794</v>
       </c>
       <c r="H25">
-        <v>0.0655197973655875</v>
+        <v>0.449016127050007</v>
       </c>
       <c r="I25">
-        <v>0.0655197973655875</v>
+        <v>0.449016127050007</v>
       </c>
       <c r="J25">
-        <v>0.9771054646591478</v>
+        <v>0.1070690239220181</v>
       </c>
       <c r="K25">
-        <v>1.045299027449554</v>
+        <v>1.241685068854794</v>
       </c>
       <c r="L25">
-        <v>0.9771054646591478</v>
+        <v>0.1070690239220181</v>
       </c>
       <c r="M25">
-        <v>0.5213126310123677</v>
+        <v>0.2780425754860125</v>
       </c>
       <c r="N25">
-        <v>0.5213126310123677</v>
+        <v>0.2780425754860125</v>
       </c>
       <c r="O25">
-        <v>0.621455780736624</v>
+        <v>0.3305095729343289</v>
       </c>
       <c r="P25">
-        <v>0.6959747631580965</v>
+        <v>0.5992567399422731</v>
       </c>
       <c r="Q25">
-        <v>0.6959747631580965</v>
+        <v>0.5992567399422731</v>
       </c>
       <c r="R25">
-        <v>0.7833058292309609</v>
+        <v>0.7598638221704035</v>
       </c>
       <c r="S25">
-        <v>0.7833058292309609</v>
+        <v>0.7598638221704035</v>
       </c>
       <c r="T25">
-        <v>0.7521677255645488</v>
+        <v>0.5285234865719614</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.621735854651463</v>
+        <v>0.9547815606178326</v>
       </c>
       <c r="D26">
-        <v>2.00063521905053</v>
+        <v>0.7306637664362051</v>
       </c>
       <c r="E26">
-        <v>1.181352793780138</v>
+        <v>1.407610290818055</v>
       </c>
       <c r="F26">
-        <v>0.8144334458427588</v>
+        <v>0.9651220927888982</v>
       </c>
       <c r="G26">
-        <v>0.8144334458427588</v>
+        <v>0.9651220927888982</v>
       </c>
       <c r="H26">
-        <v>1.966670181363898</v>
+        <v>1.297638248826563</v>
       </c>
       <c r="I26">
-        <v>1.966670181363898</v>
+        <v>1.297638248826563</v>
       </c>
       <c r="J26">
-        <v>1.03781705418751</v>
+        <v>1.815688649196343</v>
       </c>
       <c r="K26">
-        <v>0.8144334458427588</v>
+        <v>0.9651220927888982</v>
       </c>
       <c r="L26">
-        <v>1.03781705418751</v>
+        <v>1.815688649196343</v>
       </c>
       <c r="M26">
-        <v>1.502243617775704</v>
+        <v>1.556663449011453</v>
       </c>
       <c r="N26">
-        <v>1.502243617775704</v>
+        <v>1.556663449011453</v>
       </c>
       <c r="O26">
-        <v>1.395280009777182</v>
+        <v>1.506979062946987</v>
       </c>
       <c r="P26">
-        <v>1.272973560464723</v>
+        <v>1.359482996937268</v>
       </c>
       <c r="Q26">
-        <v>1.272973560464722</v>
+        <v>1.359482996937268</v>
       </c>
       <c r="R26">
-        <v>1.158338531809231</v>
+        <v>1.260892770900176</v>
       </c>
       <c r="S26">
-        <v>1.158338531809231</v>
+        <v>1.260892770900176</v>
       </c>
       <c r="T26">
-        <v>1.27044075814605</v>
+        <v>1.195250768113983</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.300184610761788</v>
+        <v>1.597200901834429</v>
       </c>
       <c r="D27">
-        <v>2.337695674734031</v>
+        <v>0.006139081893437154</v>
       </c>
       <c r="E27">
-        <v>1.036497648914765</v>
+        <v>0.8217420801851368</v>
       </c>
       <c r="F27">
-        <v>2.03652188109911</v>
+        <v>1.045299027449554</v>
       </c>
       <c r="G27">
-        <v>2.03652188109911</v>
+        <v>1.045299027449554</v>
       </c>
       <c r="H27">
-        <v>0.2854407316569693</v>
+        <v>0.0655197973655875</v>
       </c>
       <c r="I27">
-        <v>0.2854407316569693</v>
+        <v>0.0655197973655875</v>
       </c>
       <c r="J27">
-        <v>0.9700933121342539</v>
+        <v>0.9771054646591478</v>
       </c>
       <c r="K27">
-        <v>2.03652188109911</v>
+        <v>1.045299027449554</v>
       </c>
       <c r="L27">
-        <v>0.9700933121342539</v>
+        <v>0.9771054646591478</v>
       </c>
       <c r="M27">
-        <v>0.6277670218956115</v>
+        <v>0.5213126310123677</v>
       </c>
       <c r="N27">
-        <v>0.6277670218956115</v>
+        <v>0.5213126310123677</v>
       </c>
       <c r="O27">
-        <v>0.7640105642353294</v>
+        <v>0.621455780736624</v>
       </c>
       <c r="P27">
-        <v>1.097351974963444</v>
+        <v>0.6959747631580965</v>
       </c>
       <c r="Q27">
-        <v>1.097351974963444</v>
+        <v>0.6959747631580965</v>
       </c>
       <c r="R27">
-        <v>1.332144451497361</v>
+        <v>0.7833058292309609</v>
       </c>
       <c r="S27">
-        <v>1.332144451497361</v>
+        <v>0.7833058292309609</v>
       </c>
       <c r="T27">
-        <v>1.161072309883486</v>
+        <v>0.7521677255645488</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.3873090026945535</v>
+        <v>0.621735854651463</v>
       </c>
       <c r="D28">
-        <v>2.30159010931252</v>
+        <v>2.00063521905053</v>
       </c>
       <c r="E28">
-        <v>0.1447832842295467</v>
+        <v>1.181352793780138</v>
       </c>
       <c r="F28">
-        <v>2.135277101515722</v>
+        <v>0.8144334458427588</v>
       </c>
       <c r="G28">
-        <v>2.135277101515722</v>
+        <v>0.8144334458427588</v>
       </c>
       <c r="H28">
-        <v>2.633514560470958</v>
+        <v>1.966670181363898</v>
       </c>
       <c r="I28">
-        <v>2.633514560470958</v>
+        <v>1.966670181363898</v>
       </c>
       <c r="J28">
-        <v>0.5518529385725746</v>
+        <v>1.03781705418751</v>
       </c>
       <c r="K28">
-        <v>2.135277101515722</v>
+        <v>0.8144334458427588</v>
       </c>
       <c r="L28">
-        <v>0.5518529385725746</v>
+        <v>1.03781705418751</v>
       </c>
       <c r="M28">
-        <v>1.592683749521766</v>
+        <v>1.502243617775704</v>
       </c>
       <c r="N28">
-        <v>1.592683749521766</v>
+        <v>1.502243617775704</v>
       </c>
       <c r="O28">
-        <v>1.110050261091027</v>
+        <v>1.395280009777182</v>
       </c>
       <c r="P28">
-        <v>1.773548200186418</v>
+        <v>1.272973560464723</v>
       </c>
       <c r="Q28">
-        <v>1.773548200186418</v>
+        <v>1.272973560464722</v>
       </c>
       <c r="R28">
-        <v>1.863980425518744</v>
+        <v>1.158338531809231</v>
       </c>
       <c r="S28">
-        <v>1.863980425518744</v>
+        <v>1.158338531809231</v>
       </c>
       <c r="T28">
-        <v>1.359054499465979</v>
+        <v>1.27044075814605</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.300184610761788</v>
+      </c>
+      <c r="D29">
+        <v>2.337695674734031</v>
+      </c>
+      <c r="E29">
+        <v>1.036497648914765</v>
+      </c>
+      <c r="F29">
+        <v>2.03652188109911</v>
+      </c>
+      <c r="G29">
+        <v>2.03652188109911</v>
+      </c>
+      <c r="H29">
+        <v>0.2854407316569693</v>
+      </c>
+      <c r="I29">
+        <v>0.2854407316569693</v>
+      </c>
+      <c r="J29">
+        <v>0.9700933121342539</v>
+      </c>
+      <c r="K29">
+        <v>2.03652188109911</v>
+      </c>
+      <c r="L29">
+        <v>0.9700933121342539</v>
+      </c>
+      <c r="M29">
+        <v>0.6277670218956115</v>
+      </c>
+      <c r="N29">
+        <v>0.6277670218956115</v>
+      </c>
+      <c r="O29">
+        <v>0.7640105642353294</v>
+      </c>
+      <c r="P29">
+        <v>1.097351974963444</v>
+      </c>
+      <c r="Q29">
+        <v>1.097351974963444</v>
+      </c>
+      <c r="R29">
+        <v>1.332144451497361</v>
+      </c>
+      <c r="S29">
+        <v>1.332144451497361</v>
+      </c>
+      <c r="T29">
+        <v>1.161072309883486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.3873090026945535</v>
+      </c>
+      <c r="D30">
+        <v>2.30159010931252</v>
+      </c>
+      <c r="E30">
+        <v>0.1447832842295467</v>
+      </c>
+      <c r="F30">
+        <v>2.135277101515722</v>
+      </c>
+      <c r="G30">
+        <v>2.135277101515722</v>
+      </c>
+      <c r="H30">
+        <v>2.633514560470958</v>
+      </c>
+      <c r="I30">
+        <v>2.633514560470958</v>
+      </c>
+      <c r="J30">
+        <v>0.5518529385725746</v>
+      </c>
+      <c r="K30">
+        <v>2.135277101515722</v>
+      </c>
+      <c r="L30">
+        <v>0.5518529385725746</v>
+      </c>
+      <c r="M30">
+        <v>1.592683749521766</v>
+      </c>
+      <c r="N30">
+        <v>1.592683749521766</v>
+      </c>
+      <c r="O30">
+        <v>1.110050261091027</v>
+      </c>
+      <c r="P30">
+        <v>1.773548200186418</v>
+      </c>
+      <c r="Q30">
+        <v>1.773548200186418</v>
+      </c>
+      <c r="R30">
+        <v>1.863980425518744</v>
+      </c>
+      <c r="S30">
+        <v>1.863980425518744</v>
+      </c>
+      <c r="T30">
+        <v>1.359054499465979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.1408799344173713</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.0009645198413832622</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.2443380939175648</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>4.09195361503739</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>4.09195361503739</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>-0.001763376872841907</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>-0.001763376872841907</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.234016644230707</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>4.09195361503739</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.234016644230707</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.6161266336789324</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.6161266336789324</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.4921971204251432</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.774735627465085</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.774735627465085</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>2.354040124358161</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>2.354040124358161</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9517315717619289</v>
       </c>
     </row>
